--- a/data/NP20versusRestIncomeTrendsECA.xlsx
+++ b/data/NP20versusRestIncomeTrendsECA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BE96E83-922C-4645-9CE8-36DD5AFCF8AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4769BF74-BC9D-4610-97A0-45600CD3AA3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="25" activeTab="29" xr2:uid="{D185585D-16C6-455F-B6C7-C71C69262A12}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="25" activeTab="29" xr2:uid="{0CA3022A-F4A6-4A5C-8FBE-18B73F3F811A}"/>
   </bookViews>
   <sheets>
     <sheet name="Albania" sheetId="2" r:id="rId1"/>
@@ -235,7 +235,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1CCA900-8412-4539-9DC5-C784AFE0C435}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{248A4694-47A7-43A5-A891-7F0C0DA8F900}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -293,7 +293,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{493FA488-8887-414D-BCE1-A63759A39F30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C34797C-2774-441D-8EDA-21008BC4CF33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -351,7 +351,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{671B2589-2308-4C7A-9538-1CFC7076208F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57B8B801-DF24-473B-9D38-7E47C5923C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -409,7 +409,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985A55F2-BB51-4E94-8537-74F9A981FAD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4C6DA55-FE28-4715-9A37-2CDCF2AA9FE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -467,7 +467,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95258918-4AA6-4008-8176-D5AA4F3EE695}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8999A7E6-79DC-46DD-85FC-2BE7D6D865BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -525,7 +525,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB3F611E-8549-4279-ACC0-359CD4DF9FF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F40DAF-F9B2-4C1F-8A5A-2E0AF78064FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -583,7 +583,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F191CE0-BEF8-4F5E-A01D-B91DC52600B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A1121F-1F23-4F92-B854-01BDD628AA59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -641,7 +641,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AABC78BF-3EE4-4113-AE57-89D0EA74C76F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61746E24-5773-448E-AB10-9E897716A5EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -699,7 +699,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E2B63A0-C9BD-461D-B6E5-EE8F3CE47F29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF28C4F-056E-4A46-AB89-F0BBC4061A18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -757,7 +757,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{273F5D30-1303-483A-8E17-4C149CB06F68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404A40E4-803B-4F48-A990-361CD82C47BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -815,7 +815,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B84A8911-F5A4-4139-803F-E41FEB9241B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41DD21E-64F6-4891-A936-5A8C90B6D525}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -873,7 +873,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B05F22E-C2EE-401C-8A2E-1326743EEE41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29489960-4AFD-4B10-990F-E943052CE518}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -931,7 +931,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A8BD6FD-D25C-43E8-AD89-F98FACCDFE23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2EB4CDB-E972-461D-9ACB-DE69C7F895AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -989,7 +989,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B526549-40C1-4C1C-B3AF-0EF0CFF8C3D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DD80DA8-8188-416E-B60E-797D229F9B9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1047,7 +1047,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62883F7-47FF-4EB8-B385-D74530A5A58A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D4BA59-14C4-4095-9AE1-355AFF218CA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1105,7 +1105,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC58E976-E687-4708-9214-052424F805EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121F0B08-DC1B-480C-8172-27DFD8A4CC9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,7 +1163,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4903ADFE-FFE5-4F8A-80AA-DA7205BADA8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB8BBD2-3DDD-48AC-A9B9-36F359B16C9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,7 +1221,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAE05E1-7851-4D8A-B5BB-6CE74374535C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{818FD898-6271-4727-8955-D63EFCCDA05F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1279,7 +1279,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5191FF9-B894-46FF-9CD7-3FF99DABEA98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CAEC0FF-1FD2-4B3E-985C-EF917C92F253}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1337,7 +1337,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62559877-CBB4-47E0-A7EA-D6A48A7F6F0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A24E5B1-4B7E-44F7-88E6-8DAB8B651433}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1395,7 +1395,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D3A86D-B0EA-4A62-B7BF-4FB2275A41B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A253BA0C-3A1D-48DA-A424-0BA6A55D224D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1453,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B58A3C8-FF73-4D8B-8B0C-F596CC75AE3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D8D7AA7-2885-4AB6-9CFC-EFEC117D4275}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,7 +1511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE6F116A-03F0-4A9A-8464-EEBA81EEF918}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69026A1A-1A55-46D0-A798-33BD5D5524C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1569,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4661EE5C-A0BB-49A9-A633-F57600DD811E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D46A4BBC-69A2-4DAC-8168-ACAC25C71AAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1627,7 +1627,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3674643A-893D-4A8E-B56B-ABE7F88E1AD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4AD9E2-A7F9-4262-BB98-D395C9745F98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1685,7 +1685,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1BF88F7-55CA-424D-896B-14084E488BB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11A5434-F891-4E4C-9137-C4647969766B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1743,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19FC6BE-68A7-4A9C-82ED-D9A8B8AAF143}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37743E8-53A9-410F-9C20-8880FE651CAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,7 +1801,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0766F5C3-0012-447E-BFBB-FCFDA69B7BBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5A6B56-8661-4CF8-AEC0-5D60ECF29E9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1859,7 +1859,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B9FA865-B6CF-45B4-9C36-869650BB74F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE79426F-A17A-4914-83D6-4820AC615DD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1917,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048EE84B-287E-45B6-B3A2-E7FFADAC5FE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1024D70A-6212-4B9F-B41A-813C1BE06EDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F3488B-441E-4F4B-A80D-10D8324F3DB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2D94E0-EB6C-4F3B-92D2-B89A1AEB293E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2277,10 +2277,10 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>0.36998455299999999</v>
+        <v>2.2799845529999998</v>
       </c>
       <c r="K2">
-        <v>6.1352572864075299</v>
+        <v>5.6577572864075298</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -2291,10 +2291,10 @@
         <v>4</v>
       </c>
       <c r="J3">
-        <v>0.521266063</v>
+        <v>2.3712660630000002</v>
       </c>
       <c r="K3">
-        <v>6.3467697856198599</v>
+        <v>5.8842697856198596</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -2305,10 +2305,10 @@
         <v>4</v>
       </c>
       <c r="J4">
-        <v>0.64911105000000002</v>
+        <v>2.3291110499999998</v>
       </c>
       <c r="K4">
-        <v>6.1996701827054803</v>
+        <v>5.7796701827054804</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -2319,10 +2319,10 @@
         <v>4</v>
       </c>
       <c r="J5">
-        <v>0.65621260000000003</v>
+        <v>2.3262125999999999</v>
       </c>
       <c r="K5">
-        <v>6.1899715075342501</v>
+        <v>5.7724715075342496</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -2333,10 +2333,10 @@
         <v>4</v>
       </c>
       <c r="J6">
-        <v>0.68125979000000003</v>
+        <v>2.3712597899999999</v>
       </c>
       <c r="K6">
-        <v>6.3067549155137002</v>
+        <v>5.8842549155136998</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -2347,10 +2347,10 @@
         <v>4</v>
       </c>
       <c r="J7">
-        <v>0.7077796475</v>
+        <v>2.8277796474999999</v>
       </c>
       <c r="K7">
-        <v>7.5471016634674601</v>
+        <v>7.0171016634674697</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -2361,10 +2361,10 @@
         <v>4</v>
       </c>
       <c r="J8">
-        <v>0.93970752000000002</v>
+        <v>2.1897075199999998</v>
       </c>
       <c r="K8">
-        <v>6.1054005172602697</v>
+        <v>5.7929005172602697</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -2375,10 +2375,10 @@
         <v>4</v>
       </c>
       <c r="J9">
-        <v>0.87778657449999997</v>
+        <v>2.6377865745000002</v>
       </c>
       <c r="K9">
-        <v>7.6750533563749999</v>
+        <v>7.2350533563750004</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -2389,10 +2389,10 @@
         <v>4</v>
       </c>
       <c r="J10">
-        <v>0.92942610749999999</v>
+        <v>2.9994261075000002</v>
       </c>
       <c r="K10">
-        <v>8.6920105964126702</v>
+        <v>8.1745105964126701</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -2403,10 +2403,10 @@
         <v>4</v>
       </c>
       <c r="J11">
-        <v>1.043382494</v>
+        <v>3.4633824940000002</v>
       </c>
       <c r="K11">
-        <v>9.5003283491027393</v>
+        <v>8.8953283491027406</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -2417,10 +2417,10 @@
         <v>4</v>
       </c>
       <c r="J12">
-        <v>1.1973265360000001</v>
+        <v>3.377326536</v>
       </c>
       <c r="K12">
-        <v>9.2781149413424693</v>
+        <v>8.7331149413424694</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -2431,10 +2431,10 @@
         <v>4</v>
       </c>
       <c r="J13">
-        <v>1.3342154774999999</v>
+        <v>3.3542154774999999</v>
       </c>
       <c r="K13">
-        <v>9.1687201032277397</v>
+        <v>8.6637201032277407</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -2445,10 +2445,10 @@
         <v>4</v>
       </c>
       <c r="J14">
-        <v>1.4283217699999999</v>
+        <v>3.2783217699999998</v>
       </c>
       <c r="K14">
-        <v>8.9009935301027401</v>
+        <v>8.4384935301027397</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -2459,10 +2459,10 @@
         <v>4</v>
       </c>
       <c r="J15">
-        <v>1.5544524655</v>
+        <v>3.3444524654999999</v>
       </c>
       <c r="K15">
-        <v>9.05620880143322</v>
+        <v>8.6087088014332203</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -2473,10 +2473,10 @@
         <v>4</v>
       </c>
       <c r="J16">
-        <v>1.672163125</v>
+        <v>3.4921631249999998</v>
       </c>
       <c r="K16">
-        <v>9.4439126434075291</v>
+        <v>8.9889126434075308</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -2489,7 +2489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7063B26D-FBE5-476F-B11C-76A335D850AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43549D5-8CCC-464C-9225-7B7E043ABDB2}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2515,10 +2515,10 @@
         <v>13</v>
       </c>
       <c r="J2">
-        <v>-1.25244635</v>
+        <v>10.467553649999999</v>
       </c>
       <c r="K2">
-        <v>23.231471861472599</v>
+        <v>20.301471861472599</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -2529,10 +2529,10 @@
         <v>13</v>
       </c>
       <c r="J3">
-        <v>-1.1641409625000001</v>
+        <v>10.8758590375</v>
       </c>
       <c r="K3">
-        <v>24.1035064735017</v>
+        <v>21.093506473501701</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -2543,10 +2543,10 @@
         <v>13</v>
       </c>
       <c r="J4">
-        <v>0.100462886</v>
+        <v>5.1904628859999997</v>
       </c>
       <c r="K4">
-        <v>13.724151401787701</v>
+        <v>12.4516514017877</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -2557,10 +2557,10 @@
         <v>13</v>
       </c>
       <c r="J5">
-        <v>-1.0989730625</v>
+        <v>11.821026937499999</v>
       </c>
       <c r="K5">
-        <v>26.155361073844201</v>
+        <v>22.925361073844201</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -2571,10 +2571,10 @@
         <v>13</v>
       </c>
       <c r="J6">
-        <v>-0.50006320599999998</v>
+        <v>7.4699367939999997</v>
       </c>
       <c r="K6">
-        <v>19.340081554924701</v>
+        <v>17.347581554924702</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -2585,10 +2585,10 @@
         <v>13</v>
       </c>
       <c r="J7">
-        <v>-0.32708094599999998</v>
+        <v>6.2629190540000002</v>
       </c>
       <c r="K7">
-        <v>17.024972976226</v>
+        <v>15.377472976226001</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -2599,10 +2599,10 @@
         <v>13</v>
       </c>
       <c r="J8">
-        <v>-1.3743825000000201E-2</v>
+        <v>5.8862561749999998</v>
       </c>
       <c r="K8">
-        <v>15.528534586387</v>
+        <v>14.053534586387</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -2613,10 +2613,10 @@
         <v>13</v>
       </c>
       <c r="J9">
-        <v>-0.20453608500000001</v>
+        <v>6.9954639150000002</v>
       </c>
       <c r="K9">
-        <v>18.438216213030799</v>
+        <v>16.638216213030798</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -2627,10 +2627,10 @@
         <v>13</v>
       </c>
       <c r="J10">
-        <v>-0.47179869299999999</v>
+        <v>7.3582013069999999</v>
       </c>
       <c r="K10">
-        <v>21.898948303387002</v>
+        <v>19.941448303386998</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -2641,10 +2641,10 @@
         <v>13</v>
       </c>
       <c r="J11">
-        <v>-1.0718295250000001</v>
+        <v>8.6781704749999999</v>
       </c>
       <c r="K11">
-        <v>24.965461490839001</v>
+        <v>22.527961490839001</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -2655,10 +2655,10 @@
         <v>13</v>
       </c>
       <c r="J12">
-        <v>-0.86242470000000004</v>
+        <v>7.9975753000000003</v>
       </c>
       <c r="K12">
-        <v>24.6968267229452</v>
+        <v>22.4818267229452</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -2669,10 +2669,10 @@
         <v>13</v>
       </c>
       <c r="J13">
-        <v>-1.1515618750000001</v>
+        <v>8.0584381250000003</v>
       </c>
       <c r="K13">
-        <v>25.043993208476</v>
+        <v>22.741493208476001</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -2683,10 +2683,10 @@
         <v>13</v>
       </c>
       <c r="J14">
-        <v>-0.73212816250000001</v>
+        <v>7.1478718375000003</v>
       </c>
       <c r="K14">
-        <v>23.6096827255565</v>
+        <v>21.639682725556501</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -2697,10 +2697,10 @@
         <v>13</v>
       </c>
       <c r="J15">
-        <v>-0.66051247499999999</v>
+        <v>7.3194875250000004</v>
       </c>
       <c r="K15">
-        <v>24.409710310530802</v>
+        <v>22.414710310530801</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -2711,10 +2711,10 @@
         <v>13</v>
       </c>
       <c r="J16">
-        <v>-0.69577500000000003</v>
+        <v>8.3742249999999991</v>
       </c>
       <c r="K16">
-        <v>26.916046489726</v>
+        <v>24.648546489726002</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -2727,7 +2727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB685914-1851-4DC6-B50A-161F593472BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8AFB52-98AC-4184-96A8-4762BFB8723A}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2753,10 +2753,10 @@
         <v>14</v>
       </c>
       <c r="J2">
-        <v>0.14949462250000001</v>
+        <v>2.5694946225000002</v>
       </c>
       <c r="K2">
-        <v>8.5439126457448609</v>
+        <v>7.9389126457448604</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -2767,10 +2767,10 @@
         <v>14</v>
       </c>
       <c r="J3">
-        <v>0.27059964199999997</v>
+        <v>2.730599642</v>
       </c>
       <c r="K3">
-        <v>9.0516637881301403</v>
+        <v>8.4366637881301401</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -2781,10 +2781,10 @@
         <v>14</v>
       </c>
       <c r="J4">
-        <v>0.455108024</v>
+        <v>2.5151080239999999</v>
       </c>
       <c r="K4">
-        <v>8.2858654597534205</v>
+        <v>7.7708654597534199</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -2795,10 +2795,10 @@
         <v>14</v>
       </c>
       <c r="J5">
-        <v>0.40901001999999997</v>
+        <v>2.6790100200000002</v>
       </c>
       <c r="K5">
-        <v>8.8447707826712296</v>
+        <v>8.2772707826712306</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -2809,10 +2809,10 @@
         <v>14</v>
       </c>
       <c r="J6">
-        <v>0.63292630800000005</v>
+        <v>2.1529263080000001</v>
       </c>
       <c r="K6">
-        <v>7.0318560942328796</v>
+        <v>6.6518560942328797</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -2823,10 +2823,10 @@
         <v>14</v>
       </c>
       <c r="J7">
-        <v>0.73115701</v>
+        <v>2.1011570100000001</v>
       </c>
       <c r="K7">
-        <v>7.4852682817465697</v>
+        <v>7.1427682817465801</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -2837,10 +2837,10 @@
         <v>14</v>
       </c>
       <c r="J8">
-        <v>0.79927366399999999</v>
+        <v>1.829273664</v>
       </c>
       <c r="K8">
-        <v>6.9245898031780797</v>
+        <v>6.6670898031780803</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -2851,10 +2851,10 @@
         <v>14</v>
       </c>
       <c r="J9">
-        <v>0.96007408750000001</v>
+        <v>2.0600740874999999</v>
       </c>
       <c r="K9">
-        <v>6.8433102452482899</v>
+        <v>6.5683102452482904</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -2865,10 +2865,10 @@
         <v>14</v>
       </c>
       <c r="J10">
-        <v>1.0435220940000001</v>
+        <v>2.0935220939999999</v>
       </c>
       <c r="K10">
-        <v>8.5871715312945192</v>
+        <v>8.3246715312945199</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -2879,10 +2879,10 @@
         <v>14</v>
       </c>
       <c r="J11">
-        <v>0.94666311000000003</v>
+        <v>4.2966631099999999</v>
       </c>
       <c r="K11">
-        <v>11.136626003321901</v>
+        <v>10.2991260033219</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -2893,10 +2893,10 @@
         <v>14</v>
       </c>
       <c r="J12">
-        <v>1.0393711160000001</v>
+        <v>4.5593711160000003</v>
       </c>
       <c r="K12">
-        <v>11.709684618260299</v>
+        <v>10.8296846182603</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -2907,10 +2907,10 @@
         <v>14</v>
       </c>
       <c r="J13">
-        <v>1.0153150520000001</v>
+        <v>5.4053150519999997</v>
       </c>
       <c r="K13">
-        <v>13.9547137027534</v>
+        <v>12.8572137027534</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -2921,10 +2921,10 @@
         <v>14</v>
       </c>
       <c r="J14">
-        <v>1.1350261850000001</v>
+        <v>5.4650261850000001</v>
       </c>
       <c r="K14">
-        <v>14.202988659229501</v>
+        <v>13.120488659229499</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -2935,10 +2935,10 @@
         <v>14</v>
       </c>
       <c r="J15">
-        <v>1.222154121</v>
+        <v>5.9621541210000002</v>
       </c>
       <c r="K15">
-        <v>14.887595716325301</v>
+        <v>13.7025957163253</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -2949,10 +2949,10 @@
         <v>14</v>
       </c>
       <c r="J16">
-        <v>1.4449116909999999</v>
+        <v>5.6549116909999997</v>
       </c>
       <c r="K16">
-        <v>13.837274816976</v>
+        <v>12.784774816976</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -2965,7 +2965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7116AF82-0DAB-479F-8333-FEED9C513EBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4B21DF-EBC7-43FC-8AA1-93D2C309079C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2991,10 +2991,10 @@
         <v>15</v>
       </c>
       <c r="J2">
-        <v>-0.19897195500000001</v>
+        <v>2.1210280450000001</v>
       </c>
       <c r="K2">
-        <v>12.303251207928099</v>
+        <v>11.723251207928101</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -3005,10 +3005,10 @@
         <v>15</v>
       </c>
       <c r="J3">
-        <v>-5.4717191999999998E-2</v>
+        <v>2.195282808</v>
       </c>
       <c r="K3">
-        <v>12.6961176541644</v>
+        <v>12.1336176541644</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -3019,10 +3019,10 @@
         <v>15</v>
       </c>
       <c r="J4">
-        <v>0.21805183</v>
+        <v>1.91805183</v>
       </c>
       <c r="K4">
-        <v>11.0263651246918</v>
+        <v>10.601365124691799</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -3033,10 +3033,10 @@
         <v>15</v>
       </c>
       <c r="J5">
-        <v>0.11896351450000001</v>
+        <v>2.0989635144999998</v>
       </c>
       <c r="K5">
-        <v>12.0962509021969</v>
+        <v>11.601250902196901</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -3047,10 +3047,10 @@
         <v>15</v>
       </c>
       <c r="J6">
-        <v>0.65259678200000004</v>
+        <v>1.2425967819999999</v>
       </c>
       <c r="K6">
-        <v>7.0154973798424596</v>
+        <v>6.8679973798424703</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -3061,10 +3061,10 @@
         <v>15</v>
       </c>
       <c r="J7">
-        <v>1.0218338615</v>
+        <v>0.88183386149999998</v>
       </c>
       <c r="K7">
-        <v>4.83901413736473</v>
+        <v>4.8740141373647301</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -3075,10 +3075,10 @@
         <v>15</v>
       </c>
       <c r="J8">
-        <v>0.96019175000000001</v>
+        <v>1.1801917500000001</v>
       </c>
       <c r="K8">
-        <v>4.7249767200342498</v>
+        <v>4.6699767200342501</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -3089,10 +3089,10 @@
         <v>15</v>
       </c>
       <c r="J9">
-        <v>1.3007471799999999</v>
+        <v>1.20074718</v>
       </c>
       <c r="K9">
-        <v>3.1490815611643801</v>
+        <v>3.17408156116438</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -3103,10 +3103,10 @@
         <v>15</v>
       </c>
       <c r="J10">
-        <v>1.4377675475</v>
+        <v>1.6277675475</v>
       </c>
       <c r="K10">
-        <v>4.5112348254537702</v>
+        <v>4.4637348254537699</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -3117,10 +3117,10 @@
         <v>15</v>
       </c>
       <c r="J11">
-        <v>1.3326426920000001</v>
+        <v>2.2926426919999998</v>
       </c>
       <c r="K11">
-        <v>6.4924146694657496</v>
+        <v>6.2524146694657503</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -3131,10 +3131,10 @@
         <v>15</v>
       </c>
       <c r="J12">
-        <v>1.4185452540000001</v>
+        <v>2.298545254</v>
       </c>
       <c r="K12">
-        <v>6.2801883440342499</v>
+        <v>6.0601883440342501</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -3145,10 +3145,10 @@
         <v>15</v>
       </c>
       <c r="J13">
-        <v>1.7096832550000001</v>
+        <v>2.5596832549999999</v>
       </c>
       <c r="K13">
-        <v>6.1963490492637003</v>
+        <v>5.9838490492637</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -3159,10 +3159,10 @@
         <v>15</v>
       </c>
       <c r="J14">
-        <v>1.7193847345</v>
+        <v>2.4593847344999999</v>
       </c>
       <c r="K14">
-        <v>5.9712497067859598</v>
+        <v>5.7862497067859602</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -3173,10 +3173,10 @@
         <v>15</v>
       </c>
       <c r="J15">
-        <v>1.9571687520000001</v>
+        <v>2.347168752</v>
       </c>
       <c r="K15">
-        <v>5.8207845243287704</v>
+        <v>5.7232845243287702</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -3187,10 +3187,10 @@
         <v>15</v>
       </c>
       <c r="J16">
-        <v>2.0911589175</v>
+        <v>2.4611589175000002</v>
       </c>
       <c r="K16">
-        <v>5.9626472569263704</v>
+        <v>5.8701472569263702</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -3203,7 +3203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4024AB3C-F90B-4E49-9890-04FB53834F6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C227AA-FA28-483B-B538-ED7C30F441FC}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3229,10 +3229,10 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>-0.85499498750000003</v>
+        <v>8.3650050124999993</v>
       </c>
       <c r="K2">
-        <v>22.008802171532501</v>
+        <v>19.703802171532502</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -3243,10 +3243,10 @@
         <v>16</v>
       </c>
       <c r="J3">
-        <v>-0.66614945000000003</v>
+        <v>8.6238505500000002</v>
       </c>
       <c r="K3">
-        <v>22.6352716090753</v>
+        <v>20.312771609075298</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -3257,10 +3257,10 @@
         <v>16</v>
       </c>
       <c r="J4">
-        <v>-0.82993098750000005</v>
+        <v>9.6000690125000006</v>
       </c>
       <c r="K4">
-        <v>25.220081377012001</v>
+        <v>22.612581377011999</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -3271,10 +3271,10 @@
         <v>16</v>
       </c>
       <c r="J5">
-        <v>-0.54806208749999996</v>
+        <v>8.8719379125</v>
       </c>
       <c r="K5">
-        <v>23.2538566177654</v>
+        <v>20.8988566177654</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -3285,10 +3285,10 @@
         <v>16</v>
       </c>
       <c r="J6">
-        <v>0.52655726999999997</v>
+        <v>3.8565572700000001</v>
       </c>
       <c r="K6">
-        <v>9.9162565729109602</v>
+        <v>9.0837565729109606</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -3299,10 +3299,10 @@
         <v>16</v>
       </c>
       <c r="J7">
-        <v>3.7663500000029198E-4</v>
+        <v>3.5703766350000001</v>
       </c>
       <c r="K7">
-        <v>11.5500578960445</v>
+        <v>10.6575578960445</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -3313,10 +3313,10 @@
         <v>16</v>
       </c>
       <c r="J8">
-        <v>8.6605864999999893E-2</v>
+        <v>3.6466058650000002</v>
       </c>
       <c r="K8">
-        <v>12.3658375748459</v>
+        <v>11.475837574845899</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -3327,10 +3327,10 @@
         <v>16</v>
       </c>
       <c r="J9">
-        <v>-6.71528609999998E-2</v>
+        <v>4.462847139</v>
       </c>
       <c r="K9">
-        <v>15.6819046536062</v>
+        <v>14.549404653606199</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -3341,10 +3341,10 @@
         <v>16</v>
       </c>
       <c r="J10">
-        <v>-0.60108003749999905</v>
+        <v>4.2889199624999996</v>
       </c>
       <c r="K10">
-        <v>18.291570009375</v>
+        <v>17.069070009375</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -3355,10 +3355,10 @@
         <v>16</v>
       </c>
       <c r="J11">
-        <v>-0.56424682599999998</v>
+        <v>6.905753174</v>
       </c>
       <c r="K11">
-        <v>25.257838418828801</v>
+        <v>23.390338418828801</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -3369,10 +3369,10 @@
         <v>16</v>
       </c>
       <c r="J12">
-        <v>-0.76755875299999998</v>
+        <v>5.2324412469999997</v>
       </c>
       <c r="K12">
-        <v>21.4244472224966</v>
+        <v>19.9244472224966</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -3383,10 +3383,10 @@
         <v>16</v>
       </c>
       <c r="J13">
-        <v>-0.50931746</v>
+        <v>5.5506825400000004</v>
       </c>
       <c r="K13">
-        <v>21.8170581321233</v>
+        <v>20.3020581321233</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -3397,10 +3397,10 @@
         <v>16</v>
       </c>
       <c r="J14">
-        <v>-0.542010309999999</v>
+        <v>5.7779896900000001</v>
       </c>
       <c r="K14">
-        <v>22.417550522705501</v>
+        <v>20.837550522705499</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -3411,10 +3411,10 @@
         <v>16</v>
       </c>
       <c r="J15">
-        <v>-1.0046103045000001</v>
+        <v>6.4053896955000003</v>
       </c>
       <c r="K15">
-        <v>24.912685452837302</v>
+        <v>23.060185452837299</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -3425,10 +3425,10 @@
         <v>16</v>
       </c>
       <c r="J16">
-        <v>-1.3571632874999999</v>
+        <v>8.2128367124999997</v>
       </c>
       <c r="K16">
-        <v>29.387908630094199</v>
+        <v>26.9954086300942</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -3441,7 +3441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CE5886-7321-4F73-86BE-9E136A6CE7FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0067B7FA-D257-4316-A7FB-C63A18A01CFD}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3467,10 +3467,10 @@
         <v>17</v>
       </c>
       <c r="J2">
-        <v>5.6351821000000003E-2</v>
+        <v>3.4363518210000001</v>
       </c>
       <c r="K2">
-        <v>10.607740811873301</v>
+        <v>9.7627408118732895</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -3481,10 +3481,10 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>0.15249317200000001</v>
+        <v>3.7024931720000001</v>
       </c>
       <c r="K3">
-        <v>11.406346570013699</v>
+        <v>10.5188465700137</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -3495,10 +3495,10 @@
         <v>17</v>
       </c>
       <c r="J4">
-        <v>0.34809610000000002</v>
+        <v>3.4280960999999999</v>
       </c>
       <c r="K4">
-        <v>10.509280084588999</v>
+        <v>9.7392800845890406</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -3509,10 +3509,10 @@
         <v>17</v>
       </c>
       <c r="J5">
-        <v>0.29088617950000001</v>
+        <v>3.6508861795000001</v>
       </c>
       <c r="K5">
-        <v>11.2122181811524</v>
+        <v>10.3722181811524</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -3523,10 +3523,10 @@
         <v>17</v>
       </c>
       <c r="J6">
-        <v>0.78148670399999998</v>
+        <v>2.0714867039999998</v>
       </c>
       <c r="K6">
-        <v>6.2076228445479398</v>
+        <v>5.88512284454794</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -3537,10 +3537,10 @@
         <v>17</v>
       </c>
       <c r="J7">
-        <v>0.18419638799999999</v>
+        <v>3.9141963880000001</v>
       </c>
       <c r="K7">
-        <v>12.533070081082201</v>
+        <v>11.6005700810822</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -3551,10 +3551,10 @@
         <v>17</v>
       </c>
       <c r="J8">
-        <v>4.9998969000000199E-2</v>
+        <v>4.1599989690000001</v>
       </c>
       <c r="K8">
-        <v>13.2060345043253</v>
+        <v>12.178534504325301</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -3565,10 +3565,10 @@
         <v>17</v>
       </c>
       <c r="J9">
-        <v>0.32072972</v>
+        <v>3.8707297199999999</v>
       </c>
       <c r="K9">
-        <v>12.2992025015068</v>
+        <v>11.411702501506801</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -3579,10 +3579,10 @@
         <v>17</v>
       </c>
       <c r="J10">
-        <v>-0.62562625500000002</v>
+        <v>4.5643737450000001</v>
       </c>
       <c r="K10">
-        <v>17.9829367007363</v>
+        <v>16.6854367007363</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -3593,10 +3593,10 @@
         <v>17</v>
       </c>
       <c r="J11">
-        <v>-0.2340179785</v>
+        <v>6.2359820214999999</v>
       </c>
       <c r="K11">
-        <v>22.869045590515402</v>
+        <v>21.251545590515398</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -3607,10 +3607,10 @@
         <v>17</v>
       </c>
       <c r="J12">
-        <v>-0.55800248749999903</v>
+        <v>5.4519975125000002</v>
       </c>
       <c r="K12">
-        <v>21.166603361600998</v>
+        <v>19.664103361601001</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -3621,10 +3621,10 @@
         <v>17</v>
       </c>
       <c r="J13">
-        <v>-0.70840864399999903</v>
+        <v>6.5415913559999996</v>
       </c>
       <c r="K13">
-        <v>23.169603530863</v>
+        <v>21.357103530863</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -3635,10 +3635,10 @@
         <v>17</v>
       </c>
       <c r="J14">
-        <v>-0.77299541400000005</v>
+        <v>6.4770045859999996</v>
       </c>
       <c r="K14">
-        <v>24.950522826102699</v>
+        <v>23.138022826102699</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -3649,10 +3649,10 @@
         <v>17</v>
       </c>
       <c r="J15">
-        <v>-0.77313486249999896</v>
+        <v>6.9568651375000004</v>
       </c>
       <c r="K15">
-        <v>26.053349469049699</v>
+        <v>24.120849469049698</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -3663,10 +3663,10 @@
         <v>17</v>
       </c>
       <c r="J16">
-        <v>-1.6894796000000001</v>
+        <v>7.6305204</v>
       </c>
       <c r="K16">
-        <v>31.5277959273973</v>
+        <v>29.197795927397301</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -3679,7 +3679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD16A0CC-F289-49F9-8A64-08DEAAECADC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED108218-844D-4208-8288-69D59DDF7F7E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3705,10 +3705,10 @@
         <v>18</v>
       </c>
       <c r="J2">
-        <v>-0.95255519799999999</v>
+        <v>7.3874448020000001</v>
       </c>
       <c r="K2">
-        <v>19.0117196214178</v>
+        <v>16.926719621417799</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -3719,10 +3719,10 @@
         <v>18</v>
       </c>
       <c r="J3">
-        <v>-0.58605101000000004</v>
+        <v>6.69394899</v>
       </c>
       <c r="K3">
-        <v>17.157725081267099</v>
+        <v>15.3377250812671</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -3733,10 +3733,10 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>-0.89278085600000001</v>
+        <v>6.3572191440000001</v>
       </c>
       <c r="K4">
-        <v>18.777554118109599</v>
+        <v>16.965054118109599</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -3747,10 +3747,10 @@
         <v>18</v>
       </c>
       <c r="J5">
-        <v>-0.64391671500000003</v>
+        <v>7.2460832850000001</v>
       </c>
       <c r="K5">
-        <v>18.892190137654101</v>
+        <v>16.919690137654101</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -3761,10 +3761,10 @@
         <v>18</v>
       </c>
       <c r="J6">
-        <v>0.30074509999999999</v>
+        <v>3.9707450999999998</v>
       </c>
       <c r="K6">
-        <v>10.799209615411</v>
+        <v>9.8817096154109603</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -3775,10 +3775,10 @@
         <v>18</v>
       </c>
       <c r="J7">
-        <v>0.83593495250000005</v>
+        <v>2.4959349524999999</v>
       </c>
       <c r="K7">
-        <v>7.3744655769434901</v>
+        <v>6.9594655769434901</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -3789,10 +3789,10 @@
         <v>18</v>
       </c>
       <c r="J8">
-        <v>-4.7320332499999798E-2</v>
+        <v>5.2526796674999998</v>
       </c>
       <c r="K8">
-        <v>16.3985862475086</v>
+        <v>15.073586247508601</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -3803,10 +3803,10 @@
         <v>18</v>
       </c>
       <c r="J9">
-        <v>6.3111183000000196E-2</v>
+        <v>4.9531111829999999</v>
       </c>
       <c r="K9">
-        <v>16.267075628907499</v>
+        <v>15.0445756289075</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -3817,10 +3817,10 @@
         <v>18</v>
       </c>
       <c r="J10">
-        <v>0.26095221200000002</v>
+        <v>5.0409522119999997</v>
       </c>
       <c r="K10">
-        <v>16.716950988095899</v>
+        <v>15.521950988095901</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -3831,10 +3831,10 @@
         <v>18</v>
       </c>
       <c r="J11">
-        <v>4.2774828000000202E-2</v>
+        <v>6.3027748280000004</v>
       </c>
       <c r="K11">
-        <v>20.326622731356199</v>
+        <v>18.761622731356201</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -3845,10 +3845,10 @@
         <v>18</v>
       </c>
       <c r="J12">
-        <v>0.11782870600000001</v>
+        <v>6.5578287059999996</v>
       </c>
       <c r="K12">
-        <v>20.8218661111712</v>
+        <v>19.211866111171201</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -3859,10 +3859,10 @@
         <v>18</v>
       </c>
       <c r="J13">
-        <v>0.28154404750000001</v>
+        <v>6.4815440474999999</v>
       </c>
       <c r="K13">
-        <v>20.477505768946902</v>
+        <v>18.927505768946901</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -3873,10 +3873,10 @@
         <v>18</v>
       </c>
       <c r="J14">
-        <v>0.37042337600000003</v>
+        <v>6.5604233760000001</v>
       </c>
       <c r="K14">
-        <v>20.332055799835601</v>
+        <v>18.784555799835601</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -3887,10 +3887,10 @@
         <v>18</v>
       </c>
       <c r="J15">
-        <v>0.49826285399999998</v>
+        <v>6.5582628539999996</v>
       </c>
       <c r="K15">
-        <v>20.5172548344452</v>
+        <v>19.0022548344452</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -3901,10 +3901,10 @@
         <v>18</v>
       </c>
       <c r="J16">
-        <v>0.58356258000000005</v>
+        <v>6.9235625799999996</v>
       </c>
       <c r="K16">
-        <v>21.182921683767098</v>
+        <v>19.597921683767101</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -3917,7 +3917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B2ABC7-AFB7-436E-8890-9C2A2BE8C958}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F6CF81-15EC-4FCD-A973-646BE1157054}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3943,10 +3943,10 @@
         <v>19</v>
       </c>
       <c r="J2">
-        <v>-1.2415609249999999</v>
+        <v>7.9784390749999998</v>
       </c>
       <c r="K2">
-        <v>20.299131327140401</v>
+        <v>17.994131327140401</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -3957,10 +3957,10 @@
         <v>19</v>
       </c>
       <c r="J3">
-        <v>-0.98072466800000002</v>
+        <v>7.369275332</v>
       </c>
       <c r="K3">
-        <v>18.704398975219199</v>
+        <v>16.6168989752192</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -3971,10 +3971,10 @@
         <v>19</v>
       </c>
       <c r="J4">
-        <v>-0.80885782650000004</v>
+        <v>6.3011421734999997</v>
       </c>
       <c r="K4">
-        <v>17.208671990871601</v>
+        <v>15.431171990871601</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -3985,10 +3985,10 @@
         <v>19</v>
       </c>
       <c r="J5">
-        <v>-0.72449728599999996</v>
+        <v>6.9355027140000001</v>
       </c>
       <c r="K5">
-        <v>17.553795554376698</v>
+        <v>15.638795554376699</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -3999,10 +3999,10 @@
         <v>19</v>
       </c>
       <c r="J6">
-        <v>0.56360666800000003</v>
+        <v>2.1136066680000001</v>
       </c>
       <c r="K6">
-        <v>8.1881832645068506</v>
+        <v>7.8006832645068496</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -4013,10 +4013,10 @@
         <v>19</v>
       </c>
       <c r="J7">
-        <v>0.81215922600000001</v>
+        <v>1.872159226</v>
       </c>
       <c r="K7">
-        <v>5.6129286866506796</v>
+        <v>5.3479286866506897</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -4027,10 +4027,10 @@
         <v>19</v>
       </c>
       <c r="J8">
-        <v>0.8685272315</v>
+        <v>2.0885272315000001</v>
       </c>
       <c r="K8">
-        <v>5.9086791510291103</v>
+        <v>5.6036791510291097</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -4041,10 +4041,10 @@
         <v>19</v>
       </c>
       <c r="J9">
-        <v>0.9058588125</v>
+        <v>2.2058588124999998</v>
       </c>
       <c r="K9">
-        <v>6.51123940646404</v>
+        <v>6.1862394064640398</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -4055,10 +4055,10 @@
         <v>19</v>
       </c>
       <c r="J10">
-        <v>0.93044306249999997</v>
+        <v>2.8204430624999999</v>
       </c>
       <c r="K10">
-        <v>8.1872221110873298</v>
+        <v>7.7147221110873296</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -4069,10 +4069,10 @@
         <v>19</v>
       </c>
       <c r="J11">
-        <v>0.7849088045</v>
+        <v>3.7549088044999999</v>
       </c>
       <c r="K11">
-        <v>10.972801565998299</v>
+        <v>10.2303015659983</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -4083,10 +4083,10 @@
         <v>19</v>
       </c>
       <c r="J12">
-        <v>0.9210575205</v>
+        <v>3.7710575204999999</v>
       </c>
       <c r="K12">
-        <v>10.671032880148999</v>
+        <v>9.9585328801489705</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -4097,10 +4097,10 @@
         <v>19</v>
       </c>
       <c r="J13">
-        <v>1.117885926</v>
+        <v>3.8178859260000002</v>
       </c>
       <c r="K13">
-        <v>10.3966079705548</v>
+        <v>9.7216079705547909</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -4111,10 +4111,10 @@
         <v>19</v>
       </c>
       <c r="J14">
-        <v>1.160650103</v>
+        <v>3.8806501029999998</v>
       </c>
       <c r="K14">
-        <v>10.594416926304801</v>
+        <v>9.9144169263047903</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -4125,10 +4125,10 @@
         <v>19</v>
       </c>
       <c r="J15">
-        <v>1.3026669285000001</v>
+        <v>3.8926669285000002</v>
       </c>
       <c r="K15">
-        <v>10.6294784733544</v>
+        <v>9.9819784733544505</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -4139,10 +4139,10 @@
         <v>19</v>
       </c>
       <c r="J16">
-        <v>0.88525259099999998</v>
+        <v>2.6252525910000002</v>
       </c>
       <c r="K16">
-        <v>12.7005375371815</v>
+        <v>12.265537537181499</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -4155,7 +4155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732304F5-8AB0-40AC-90DF-10A34681CF9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1D74D4-D765-4322-857C-3D21DE76A1D2}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4181,10 +4181,10 @@
         <v>20</v>
       </c>
       <c r="J2">
-        <v>-0.56306688999999999</v>
+        <v>3.2569331099999999</v>
       </c>
       <c r="K2">
-        <v>18.658398229349299</v>
+        <v>17.7033982293493</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -4195,10 +4195,10 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <v>-0.50091242000000002</v>
+        <v>3.5090875800000001</v>
       </c>
       <c r="K3">
-        <v>20.076497968013701</v>
+        <v>19.0739979680137</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -4209,10 +4209,10 @@
         <v>20</v>
       </c>
       <c r="J4">
-        <v>-0.27781203999999998</v>
+        <v>3.2821879599999999</v>
       </c>
       <c r="K4">
-        <v>18.730673557945199</v>
+        <v>17.840673557945198</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -4223,10 +4223,10 @@
         <v>20</v>
       </c>
       <c r="J5">
-        <v>-0.37319036300000002</v>
+        <v>3.4868096369999999</v>
       </c>
       <c r="K5">
-        <v>19.917905809928101</v>
+        <v>18.952905809928101</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -4237,10 +4237,10 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>-0.13100004800000001</v>
+        <v>3.068999952</v>
       </c>
       <c r="K6">
-        <v>17.4818678202192</v>
+        <v>16.6818678202192</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -4251,10 +4251,10 @@
         <v>20</v>
       </c>
       <c r="J7">
-        <v>-7.3443971999999705E-2</v>
+        <v>2.9565560280000001</v>
       </c>
       <c r="K7">
-        <v>16.6255966094384</v>
+        <v>15.8680966094384</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -4265,10 +4265,10 @@
         <v>20</v>
       </c>
       <c r="J8">
-        <v>0.42557997250000001</v>
+        <v>2.7255799724999998</v>
       </c>
       <c r="K8">
-        <v>10.762202267149</v>
+        <v>10.187202267149001</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -4279,10 +4279,10 @@
         <v>20</v>
       </c>
       <c r="J9">
-        <v>0.20030655</v>
+        <v>3.9503065500000001</v>
       </c>
       <c r="K9">
-        <v>14.810448020034199</v>
+        <v>13.872948020034199</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -4293,10 +4293,10 @@
         <v>20</v>
       </c>
       <c r="J10">
-        <v>5.4153708000000501E-2</v>
+        <v>4.5341537079999998</v>
       </c>
       <c r="K10">
-        <v>19.401927326424701</v>
+        <v>18.2819273264247</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -4307,10 +4307,10 @@
         <v>20</v>
       </c>
       <c r="J11">
-        <v>-0.38282294</v>
+        <v>6.5671770599999997</v>
       </c>
       <c r="K11">
-        <v>27.221701625411001</v>
+        <v>25.484201625411</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -4321,10 +4321,10 @@
         <v>20</v>
       </c>
       <c r="J12">
-        <v>-0.38667829399999998</v>
+        <v>7.1333217060000003</v>
       </c>
       <c r="K12">
-        <v>27.9302914913082</v>
+        <v>26.050291491308201</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -4335,10 +4335,10 @@
         <v>20</v>
       </c>
       <c r="J13">
-        <v>-0.24196799999999999</v>
+        <v>7.468032</v>
       </c>
       <c r="K13">
-        <v>28.983590630137002</v>
+        <v>27.056090630137</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -4349,10 +4349,10 @@
         <v>20</v>
       </c>
       <c r="J14">
-        <v>-0.41554342500000002</v>
+        <v>7.7144565749999998</v>
       </c>
       <c r="K14">
-        <v>30.533305034332201</v>
+        <v>28.500805034332199</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -4363,10 +4363,10 @@
         <v>20</v>
       </c>
       <c r="J15">
-        <v>-6.2998424999999497E-2</v>
+        <v>7.9170015749999996</v>
       </c>
       <c r="K15">
-        <v>31.101642756934901</v>
+        <v>29.1066427569349</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -4377,10 +4377,10 @@
         <v>20</v>
       </c>
       <c r="J16">
-        <v>0.15403663749999999</v>
+        <v>7.7240366375000002</v>
       </c>
       <c r="K16">
-        <v>27.914890840624999</v>
+        <v>26.022390840625</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -4393,7 +4393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFFCB51-E2A4-4D07-97DF-C2FDE0C85BE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F22024-EB77-43C3-9B92-04AADB8802EA}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4419,10 +4419,10 @@
         <v>21</v>
       </c>
       <c r="J2">
-        <v>-2.0741564540000001</v>
+        <v>6.7658435460000002</v>
       </c>
       <c r="K2">
-        <v>19.937658291582199</v>
+        <v>17.727658291582198</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -4433,10 +4433,10 @@
         <v>21</v>
       </c>
       <c r="J3">
-        <v>-1.8964455385000001</v>
+        <v>6.7835544614999996</v>
       </c>
       <c r="K3">
-        <v>19.944062069556502</v>
+        <v>17.7740620695565</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -4447,10 +4447,10 @@
         <v>21</v>
       </c>
       <c r="J4">
-        <v>-2.1788519499999999</v>
+        <v>7.5011480500000003</v>
       </c>
       <c r="K4">
-        <v>22.0754294258562</v>
+        <v>19.655429425856202</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -4461,10 +4461,10 @@
         <v>21</v>
       </c>
       <c r="J5">
-        <v>-1.8572574875000001</v>
+        <v>7.0627425124999998</v>
       </c>
       <c r="K5">
-        <v>20.736395193792799</v>
+        <v>18.506395193792802</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -4475,10 +4475,10 @@
         <v>21</v>
       </c>
       <c r="J6">
-        <v>-1.2476486950000001</v>
+        <v>5.7223513050000001</v>
       </c>
       <c r="K6">
-        <v>16.736036831284199</v>
+        <v>14.993536831284199</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -4489,10 +4489,10 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>-1.4878867200000001</v>
+        <v>6.5821132799999997</v>
       </c>
       <c r="K7">
-        <v>19.2637483923288</v>
+        <v>17.246248392328798</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -4503,10 +4503,10 @@
         <v>21</v>
       </c>
       <c r="J8">
-        <v>-1.354221068</v>
+        <v>6.6757789320000001</v>
       </c>
       <c r="K8">
-        <v>19.5401169108356</v>
+        <v>17.5326169108356</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -4517,10 +4517,10 @@
         <v>21</v>
       </c>
       <c r="J9">
-        <v>-1.1530807595000001</v>
+        <v>6.7869192404999996</v>
       </c>
       <c r="K9">
-        <v>19.8311003268613</v>
+        <v>17.846100326861301</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -4531,10 +4531,10 @@
         <v>21</v>
       </c>
       <c r="J10">
-        <v>-0.10365263999999901</v>
+        <v>6.7363473599999999</v>
       </c>
       <c r="K10">
-        <v>19.0836309682192</v>
+        <v>17.373630968219199</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -4545,10 +4545,10 @@
         <v>21</v>
       </c>
       <c r="J11">
-        <v>-0.148420287499999</v>
+        <v>8.6015797124999995</v>
       </c>
       <c r="K11">
-        <v>21.831953017080501</v>
+        <v>19.644453017080501</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -4559,10 +4559,10 @@
         <v>21</v>
       </c>
       <c r="J12">
-        <v>-2.0976404</v>
+        <v>9.7623595999999999</v>
       </c>
       <c r="K12">
-        <v>29.206645716438398</v>
+        <v>26.241645716438398</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -4573,10 +4573,10 @@
         <v>21</v>
       </c>
       <c r="J13">
-        <v>-2.1502153625</v>
+        <v>10.3097846375</v>
       </c>
       <c r="K13">
-        <v>30.304581237885301</v>
+        <v>27.189581237885299</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -4587,10 +4587,10 @@
         <v>21</v>
       </c>
       <c r="J14">
-        <v>-1.7177568000000001</v>
+        <v>9.4122432000000007</v>
       </c>
       <c r="K14">
-        <v>27.744135090411</v>
+        <v>24.961635090411001</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -4601,10 +4601,10 @@
         <v>21</v>
       </c>
       <c r="J15">
-        <v>-1.4614110124999999</v>
+        <v>9.2685889874999994</v>
       </c>
       <c r="K15">
-        <v>28.393551383262</v>
+        <v>25.711051383261999</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -4615,10 +4615,10 @@
         <v>21</v>
       </c>
       <c r="J16">
-        <v>-1.5828224375</v>
+        <v>9.4871775624999994</v>
       </c>
       <c r="K16">
-        <v>28.296128897046199</v>
+        <v>25.5286288970462</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -4631,7 +4631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE8C5AF-1EA0-4E8B-A10A-A19F5CEBDBFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65530A55-C25B-4B3E-9164-FECF246366D1}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4657,10 +4657,10 @@
         <v>22</v>
       </c>
       <c r="J2">
-        <v>0.26338264049999999</v>
+        <v>2.1633826405000001</v>
       </c>
       <c r="K2">
-        <v>9.1091488604229394</v>
+        <v>8.6341488604229504</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -4671,10 +4671,10 @@
         <v>22</v>
       </c>
       <c r="J3">
-        <v>0.34122341499999997</v>
+        <v>2.4712234149999999</v>
       </c>
       <c r="K3">
-        <v>10.3952311325514</v>
+        <v>9.8627311325513691</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -4685,10 +4685,10 @@
         <v>22</v>
       </c>
       <c r="J4">
-        <v>0.186985707</v>
+        <v>3.0069857070000001</v>
       </c>
       <c r="K4">
-        <v>12.8757330253048</v>
+        <v>12.1707330253048</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -4699,10 +4699,10 @@
         <v>22</v>
       </c>
       <c r="J5">
-        <v>0.271660921</v>
+        <v>3.001660921</v>
       </c>
       <c r="K5">
-        <v>12.662214906736301</v>
+        <v>11.9797149067363</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -4713,10 +4713,10 @@
         <v>22</v>
       </c>
       <c r="J6">
-        <v>0.170245124</v>
+        <v>3.0602451240000001</v>
       </c>
       <c r="K6">
-        <v>13.190035979274001</v>
+        <v>12.467535979274</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -4727,10 +4727,10 @@
         <v>22</v>
       </c>
       <c r="J7">
-        <v>0.35753737899999999</v>
+        <v>3.007537379</v>
       </c>
       <c r="K7">
-        <v>12.928318394975999</v>
+        <v>12.265818394976</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -4741,10 +4741,10 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>0.32736504799999999</v>
+        <v>3.157365048</v>
       </c>
       <c r="K8">
-        <v>13.606455998274001</v>
+        <v>12.898955998273999</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -4755,10 +4755,10 @@
         <v>22</v>
       </c>
       <c r="J9">
-        <v>0.51284299200000005</v>
+        <v>3.0228429920000002</v>
       </c>
       <c r="K9">
-        <v>12.981883772547899</v>
+        <v>12.3543837725479</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -4769,10 +4769,10 @@
         <v>22</v>
       </c>
       <c r="J10">
-        <v>0.29640269549999998</v>
+        <v>3.1464026955</v>
       </c>
       <c r="K10">
-        <v>15.167789737083901</v>
+        <v>14.4552897370839</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -4783,10 +4783,10 @@
         <v>22</v>
       </c>
       <c r="J11">
-        <v>-4.1424625500000402E-2</v>
+        <v>4.0685753745</v>
       </c>
       <c r="K11">
-        <v>17.877571224868099</v>
+        <v>16.850071224868099</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -4797,10 +4797,10 @@
         <v>22</v>
       </c>
       <c r="J12">
-        <v>0.115565599</v>
+        <v>4.2455655989999999</v>
       </c>
       <c r="K12">
-        <v>17.9503839427157</v>
+        <v>16.9178839427158</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -4811,10 +4811,10 @@
         <v>22</v>
       </c>
       <c r="J13">
-        <v>0.189911524</v>
+        <v>4.5599115240000003</v>
       </c>
       <c r="K13">
-        <v>19.620472803931499</v>
+        <v>18.527972803931501</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -4825,10 +4825,10 @@
         <v>22</v>
       </c>
       <c r="J14">
-        <v>0.28185342299999999</v>
+        <v>4.7318534229999996</v>
       </c>
       <c r="K14">
-        <v>20.356701027811599</v>
+        <v>19.244201027811599</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -4839,10 +4839,10 @@
         <v>22</v>
       </c>
       <c r="J15">
-        <v>0.30044700000000002</v>
+        <v>4.9704470000000001</v>
       </c>
       <c r="K15">
-        <v>21.1824772910959</v>
+        <v>20.014977291095899</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -4853,10 +4853,10 @@
         <v>22</v>
       </c>
       <c r="J16">
-        <v>0.56813644100000005</v>
+        <v>4.9781364410000002</v>
       </c>
       <c r="K16">
-        <v>22.1004179445445</v>
+        <v>20.997917944544501</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -4869,7 +4869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D38190D-6090-42DF-9E75-9D857AC5DA97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B39A3AE-5519-4CCF-B4C0-D5E15AD41D03}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4895,10 +4895,10 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>0.30314751000000001</v>
+        <v>1.8731475099999999</v>
       </c>
       <c r="K2">
-        <v>8.5638268211301405</v>
+        <v>8.1713268211301404</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -4909,10 +4909,10 @@
         <v>5</v>
       </c>
       <c r="J3">
-        <v>0.45160913949999998</v>
+        <v>1.9716091394999999</v>
       </c>
       <c r="K3">
-        <v>8.9808210027962296</v>
+        <v>8.6008210027962306</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -4923,10 +4923,10 @@
         <v>5</v>
       </c>
       <c r="J4">
-        <v>0.628381568</v>
+        <v>1.7883815679999999</v>
       </c>
       <c r="K4">
-        <v>8.09152378608219</v>
+        <v>7.80152378608219</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -4937,10 +4937,10 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>0.59653276</v>
+        <v>1.9065327599999999</v>
       </c>
       <c r="K5">
-        <v>8.6444339332876705</v>
+        <v>8.3169339332876699</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -4951,10 +4951,10 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <v>0.92995949300000003</v>
+        <v>1.1399594930000001</v>
       </c>
       <c r="K6">
-        <v>5.0253840993527401</v>
+        <v>4.9728840993527399</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -4965,10 +4965,10 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <v>0.96745687800000002</v>
+        <v>1.4474568779999999</v>
       </c>
       <c r="K7">
-        <v>6.4343316709109599</v>
+        <v>6.3143316709109598</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -4979,10 +4979,10 @@
         <v>5</v>
       </c>
       <c r="J8">
-        <v>1.0716249</v>
+        <v>1.5216248999999999</v>
       </c>
       <c r="K8">
-        <v>4.7633855558219196</v>
+        <v>4.6508855558219198</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -4993,10 +4993,10 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <v>1.1940503115000001</v>
+        <v>1.6140503115</v>
       </c>
       <c r="K9">
-        <v>4.7162750933578801</v>
+        <v>4.6112750933578797</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -5007,10 +5007,10 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <v>1.21798998</v>
+        <v>2.2679899799999998</v>
       </c>
       <c r="K10">
-        <v>6.7366956556849296</v>
+        <v>6.4741956556849303</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -5021,10 +5021,10 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>1.302861536</v>
+        <v>2.822861536</v>
       </c>
       <c r="K11">
-        <v>7.4120161228493204</v>
+        <v>7.0320161228493099</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -5035,10 +5035,10 @@
         <v>5</v>
       </c>
       <c r="J12">
-        <v>1.5067140225</v>
+        <v>2.5567140225</v>
       </c>
       <c r="K12">
-        <v>6.6442297135530799</v>
+        <v>6.3817297135530797</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -5049,10 +5049,10 @@
         <v>5</v>
       </c>
       <c r="J13">
-        <v>1.610707858</v>
+        <v>2.590707858</v>
       </c>
       <c r="K13">
-        <v>6.7644216656369904</v>
+        <v>6.5194216656369903</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -5063,10 +5063,10 @@
         <v>5</v>
       </c>
       <c r="J14">
-        <v>1.6811002079999999</v>
+        <v>2.6711002079999999</v>
       </c>
       <c r="K14">
-        <v>7.0044044000547903</v>
+        <v>6.7569044000547898</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -5077,10 +5077,10 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <v>1.7478334265</v>
+        <v>2.6578334264999999</v>
       </c>
       <c r="K15">
-        <v>7.2670293146078802</v>
+        <v>7.0395293146078703</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -5091,10 +5091,10 @@
         <v>5</v>
       </c>
       <c r="J16">
-        <v>1.8755224644999999</v>
+        <v>2.7855224645000001</v>
       </c>
       <c r="K16">
-        <v>8.0015659592174693</v>
+        <v>7.7740659592174701</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -5107,7 +5107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2DFD01-F676-4F8B-A180-F4232C466498}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1A9A88-5FAA-4DCC-9EE2-34B7CC29F1FA}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5133,10 +5133,10 @@
         <v>23</v>
       </c>
       <c r="J2">
-        <v>-0.21328227499999999</v>
+        <v>3.2567177250000001</v>
       </c>
       <c r="K2">
-        <v>10.239212349571901</v>
+        <v>9.3717123495719203</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -5147,10 +5147,10 @@
         <v>23</v>
       </c>
       <c r="J3">
-        <v>-0.14507785000000001</v>
+        <v>3.5449221500000001</v>
       </c>
       <c r="K3">
-        <v>11.123566722773999</v>
+        <v>10.201066722774</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -5161,10 +5161,10 @@
         <v>23</v>
       </c>
       <c r="J4">
-        <v>1.47885855000003E-2</v>
+        <v>3.4047885855</v>
       </c>
       <c r="K4">
-        <v>10.645332990611299</v>
+        <v>9.7978329906112993</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -5175,10 +5175,10 @@
         <v>23</v>
       </c>
       <c r="J5">
-        <v>-4.0107024000000102E-2</v>
+        <v>3.5698929760000002</v>
       </c>
       <c r="K5">
-        <v>11.1754637423014</v>
+        <v>10.2729637423014</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -5189,10 +5189,10 @@
         <v>23</v>
       </c>
       <c r="J6">
-        <v>0.4704367445</v>
+        <v>3.0904367444999998</v>
       </c>
       <c r="K6">
-        <v>8.6449223207243193</v>
+        <v>7.9899223207243102</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -5203,10 +5203,10 @@
         <v>23</v>
       </c>
       <c r="J7">
-        <v>0.70571074749999996</v>
+        <v>2.1857107474999999</v>
       </c>
       <c r="K7">
-        <v>7.4859709432619796</v>
+        <v>7.1159709432619804</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -5217,10 +5217,10 @@
         <v>23</v>
       </c>
       <c r="J8">
-        <v>0.99933968200000001</v>
+        <v>1.9193396819999999</v>
       </c>
       <c r="K8">
-        <v>5.2008568603219203</v>
+        <v>4.9708568603219199</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -5231,10 +5231,10 @@
         <v>23</v>
       </c>
       <c r="J9">
-        <v>0.80636962499999998</v>
+        <v>2.906369625</v>
       </c>
       <c r="K9">
-        <v>8.0783459499143806</v>
+        <v>7.5533459499143802</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -5245,10 +5245,10 @@
         <v>23</v>
       </c>
       <c r="J10">
-        <v>0.57266116300000003</v>
+        <v>4.332661163</v>
       </c>
       <c r="K10">
-        <v>12.1583141613048</v>
+        <v>11.2183141613048</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -5259,10 +5259,10 @@
         <v>23</v>
       </c>
       <c r="J11">
-        <v>0.59297346350000002</v>
+        <v>5.5829734635000001</v>
       </c>
       <c r="K11">
-        <v>14.341431976590799</v>
+        <v>13.093931976590801</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -5273,10 +5273,10 @@
         <v>23</v>
       </c>
       <c r="J12">
-        <v>0.80903083499999995</v>
+        <v>5.8490308349999998</v>
       </c>
       <c r="K12">
-        <v>14.1139559898801</v>
+        <v>12.853955989880101</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -5287,10 +5287,10 @@
         <v>23</v>
       </c>
       <c r="J13">
-        <v>0.82434242199999996</v>
+        <v>6.0943424220000004</v>
       </c>
       <c r="K13">
-        <v>14.673421243815101</v>
+        <v>13.3559212438151</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -5301,10 +5301,10 @@
         <v>23</v>
       </c>
       <c r="J14">
-        <v>0.90976566849999996</v>
+        <v>6.3297656685000003</v>
       </c>
       <c r="K14">
-        <v>15.2692805006832</v>
+        <v>13.9142805006832</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -5315,10 +5315,10 @@
         <v>23</v>
       </c>
       <c r="J15">
-        <v>0.89734491750000001</v>
+        <v>6.7273449175</v>
       </c>
       <c r="K15">
-        <v>16.149491167885301</v>
+        <v>14.6919911678853</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -5329,10 +5329,10 @@
         <v>23</v>
       </c>
       <c r="J16">
-        <v>1.2359628825</v>
+        <v>5.6859628825000001</v>
       </c>
       <c r="K16">
-        <v>13.875716128690099</v>
+        <v>12.7632161286901</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -5345,7 +5345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FF52B4-5141-4CE2-B33F-42245ADBC090}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3BB252-0359-4F81-8BDA-830F0125CBE5}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5371,10 +5371,10 @@
         <v>24</v>
       </c>
       <c r="J2">
-        <v>0.42685400800000001</v>
+        <v>0.75685400800000002</v>
       </c>
       <c r="K2">
-        <v>4.66304403224657</v>
+        <v>4.5805440322465696</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -5385,10 +5385,10 @@
         <v>24</v>
       </c>
       <c r="J3">
-        <v>0.63384381700000003</v>
+        <v>0.71384381699999999</v>
       </c>
       <c r="K3">
-        <v>4.3402732923253398</v>
+        <v>4.3202732923253402</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -5399,10 +5399,10 @@
         <v>24</v>
       </c>
       <c r="J4">
-        <v>0.67328629750000002</v>
+        <v>0.80328629750000002</v>
       </c>
       <c r="K4">
-        <v>4.8940469187756799</v>
+        <v>4.8615469187756801</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -5413,10 +5413,10 @@
         <v>24</v>
       </c>
       <c r="J5">
-        <v>0.72736040400000002</v>
+        <v>0.75736040400000004</v>
       </c>
       <c r="K5">
-        <v>4.59113524146575</v>
+        <v>4.5836352414657497</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -5427,10 +5427,10 @@
         <v>24</v>
       </c>
       <c r="J6">
-        <v>0.84822451850000002</v>
+        <v>0.64822451849999996</v>
       </c>
       <c r="K6">
-        <v>3.8731001717448601</v>
+        <v>3.9231001717448599</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -5441,10 +5441,10 @@
         <v>24</v>
       </c>
       <c r="J7">
-        <v>1.06511544</v>
+        <v>0.58511544000000004</v>
       </c>
       <c r="K7">
-        <v>3.4212216879452102</v>
+        <v>3.5412216879452099</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -5455,10 +5455,10 @@
         <v>24</v>
       </c>
       <c r="J8">
-        <v>1.184119589</v>
+        <v>0.66411958900000001</v>
       </c>
       <c r="K8">
-        <v>2.9566670890513702</v>
+        <v>3.0866670890513701</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -5469,10 +5469,10 @@
         <v>24</v>
       </c>
       <c r="J9">
-        <v>1.3649126519999999</v>
+        <v>0.88491265200000002</v>
       </c>
       <c r="K9">
-        <v>2.3480285493287698</v>
+        <v>2.4680285493287699</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -5483,10 +5483,10 @@
         <v>24</v>
       </c>
       <c r="J10">
-        <v>1.5441217620000001</v>
+        <v>0.85412176200000001</v>
       </c>
       <c r="K10">
-        <v>2.4922665458013702</v>
+        <v>2.6647665458013701</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -5497,10 +5497,10 @@
         <v>24</v>
       </c>
       <c r="J11">
-        <v>1.6024102899999999</v>
+        <v>1.0524102900000001</v>
       </c>
       <c r="K11">
-        <v>3.1458145507876698</v>
+        <v>3.28331455078767</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -5511,10 +5511,10 @@
         <v>24</v>
       </c>
       <c r="J12">
-        <v>1.6999175230000001</v>
+        <v>1.1799175230000001</v>
       </c>
       <c r="K12">
-        <v>3.55112486582534</v>
+        <v>3.6811248658253399</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -5525,10 +5525,10 @@
         <v>24</v>
       </c>
       <c r="J13">
-        <v>1.8240172195</v>
+        <v>1.2440172195000001</v>
       </c>
       <c r="K13">
-        <v>3.7360765170428101</v>
+        <v>3.8810765170428101</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -5539,10 +5539,10 @@
         <v>24</v>
       </c>
       <c r="J14">
-        <v>1.8763423809999999</v>
+        <v>1.3263423809999999</v>
       </c>
       <c r="K14">
-        <v>4.0004623499554803</v>
+        <v>4.1379623499554796</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -5553,10 +5553,10 @@
         <v>24</v>
       </c>
       <c r="J15">
-        <v>1.9902686439999999</v>
+        <v>1.4102686440000001</v>
       </c>
       <c r="K15">
-        <v>4.2547369485890396</v>
+        <v>4.3997369485890401</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -5567,10 +5567,10 @@
         <v>24</v>
       </c>
       <c r="J16">
-        <v>2.0863950469999999</v>
+        <v>1.5863950469999999</v>
       </c>
       <c r="K16">
-        <v>4.8242327450993097</v>
+        <v>4.9492327450993097</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -5583,7 +5583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE51C7E-51B7-4FC7-B7A1-2503154F94D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9929BF2-7B14-4E54-9CCD-E5E35EF09101}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5609,10 +5609,10 @@
         <v>25</v>
       </c>
       <c r="J2">
-        <v>0.44146150000000001</v>
+        <v>2.5514614999999998</v>
       </c>
       <c r="K2">
-        <v>7.1501236660958902</v>
+        <v>6.6226236660958904</v>
       </c>
       <c r="L2">
         <v>1984</v>
@@ -5623,10 +5623,10 @@
         <v>25</v>
       </c>
       <c r="J3">
-        <v>0.71701302600000005</v>
+        <v>2.0170130259999999</v>
       </c>
       <c r="K3">
-        <v>5.5604330448698596</v>
+        <v>5.2354330448698603</v>
       </c>
       <c r="L3">
         <v>1990</v>
@@ -5637,10 +5637,10 @@
         <v>25</v>
       </c>
       <c r="J4">
-        <v>0.53432421600000002</v>
+        <v>2.6443242159999998</v>
       </c>
       <c r="K4">
-        <v>7.3911668912054802</v>
+        <v>6.8636668912054803</v>
       </c>
       <c r="L4">
         <v>1987</v>
@@ -5651,10 +5651,10 @@
         <v>25</v>
       </c>
       <c r="J5">
-        <v>0.95774496899999995</v>
+        <v>1.3677449690000001</v>
       </c>
       <c r="K5">
-        <v>3.6526445796678102</v>
+        <v>3.5501445796678102</v>
       </c>
       <c r="L5">
         <v>1993</v>
@@ -5665,10 +5665,10 @@
         <v>25</v>
       </c>
       <c r="J6">
-        <v>0.66663480399999997</v>
+        <v>2.8666348039999998</v>
       </c>
       <c r="K6">
-        <v>7.9906947236575299</v>
+        <v>7.44069472365753</v>
       </c>
       <c r="L6">
         <v>1996</v>
@@ -5679,10 +5679,10 @@
         <v>25</v>
       </c>
       <c r="J7">
-        <v>6.8583615500000597E-2</v>
+        <v>4.9085836155000004</v>
       </c>
       <c r="K7">
-        <v>13.950800671467499</v>
+        <v>12.7408006714675</v>
       </c>
       <c r="L7">
         <v>1999</v>
@@ -5693,10 +5693,10 @@
         <v>25</v>
       </c>
       <c r="J8">
-        <v>-0.30141293299999999</v>
+        <v>5.9185870669999998</v>
       </c>
       <c r="K8">
-        <v>17.9724203565377</v>
+        <v>16.417420356537701</v>
       </c>
       <c r="L8">
         <v>2002</v>
@@ -5707,10 +5707,10 @@
         <v>25</v>
       </c>
       <c r="J9">
-        <v>-0.69830661499999902</v>
+        <v>7.1416933849999999</v>
       </c>
       <c r="K9">
-        <v>24.225145146900701</v>
+        <v>22.2651451469007</v>
       </c>
       <c r="L9">
         <v>2005</v>
@@ -5721,10 +5721,10 @@
         <v>25</v>
       </c>
       <c r="J10">
-        <v>-0.67425234999999994</v>
+        <v>7.8257476500000003</v>
       </c>
       <c r="K10">
-        <v>26.390243909417801</v>
+        <v>24.265243909417801</v>
       </c>
       <c r="L10">
         <v>2008</v>
@@ -5735,10 +5735,10 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>-0.47309698</v>
+        <v>7.26690302</v>
       </c>
       <c r="K11">
-        <v>24.499894792945199</v>
+        <v>22.5648947929452</v>
       </c>
       <c r="L11">
         <v>2010</v>
@@ -5749,10 +5749,10 @@
         <v>25</v>
       </c>
       <c r="J12">
-        <v>-0.340654505</v>
+        <v>7.1793454949999997</v>
       </c>
       <c r="K12">
-        <v>24.1578170509075</v>
+        <v>22.277817050907501</v>
       </c>
       <c r="L12">
         <v>2011</v>
@@ -5763,10 +5763,10 @@
         <v>25</v>
       </c>
       <c r="J13">
-        <v>-0.18638416799999999</v>
+        <v>7.063615832</v>
       </c>
       <c r="K13">
-        <v>23.626986452958899</v>
+        <v>21.814486452958899</v>
       </c>
       <c r="L13">
         <v>2012</v>
@@ -5777,10 +5777,10 @@
         <v>25</v>
       </c>
       <c r="J14">
-        <v>-1.9105772499999701E-2</v>
+        <v>7.0108942274999997</v>
       </c>
       <c r="K14">
-        <v>23.264483292440101</v>
+        <v>21.506983292440101</v>
       </c>
       <c r="L14">
         <v>2013</v>
@@ -5791,10 +5791,10 @@
         <v>25</v>
       </c>
       <c r="J15">
-        <v>9.9532484500000101E-2</v>
+        <v>7.1495324844999999</v>
       </c>
       <c r="K15">
-        <v>23.292255235039399</v>
+        <v>21.529755235039399</v>
       </c>
       <c r="L15">
         <v>2015</v>
@@ -5807,7 +5807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17009B0-6BB5-4965-9CC9-DD900BEF99CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683F67AF-1F06-4CEF-8A7C-CC7CAD23DC7E}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5833,10 +5833,10 @@
         <v>26</v>
       </c>
       <c r="J2">
-        <v>-3.1354047999999898E-2</v>
+        <v>3.3986459519999999</v>
       </c>
       <c r="K2">
-        <v>10.0393453613151</v>
+        <v>9.1818453613150695</v>
       </c>
       <c r="L2">
         <v>1984</v>
@@ -5847,10 +5847,10 @@
         <v>26</v>
       </c>
       <c r="J3">
-        <v>0.15269489999999999</v>
+        <v>3.1826949</v>
       </c>
       <c r="K3">
-        <v>9.3559276448630104</v>
+        <v>8.5984276448630101</v>
       </c>
       <c r="L3">
         <v>1990</v>
@@ -5861,10 +5861,10 @@
         <v>26</v>
       </c>
       <c r="J4">
-        <v>2.5642332500000399E-2</v>
+        <v>3.5656423325</v>
       </c>
       <c r="K4">
-        <v>10.5180044853682</v>
+        <v>9.6330044853681507</v>
       </c>
       <c r="L4">
         <v>1987</v>
@@ -5875,10 +5875,10 @@
         <v>26</v>
       </c>
       <c r="J5">
-        <v>0.31146636</v>
+        <v>2.8914663599999999</v>
       </c>
       <c r="K5">
-        <v>8.4566361497260303</v>
+        <v>7.8116361497260298</v>
       </c>
       <c r="L5">
         <v>1993</v>
@@ -5889,10 +5889,10 @@
         <v>26</v>
       </c>
       <c r="J6">
-        <v>0.38974795200000001</v>
+        <v>3.119747952</v>
       </c>
       <c r="K6">
-        <v>9.11086986131507</v>
+        <v>8.4283698613150708</v>
       </c>
       <c r="L6">
         <v>1996</v>
@@ -5903,10 +5903,10 @@
         <v>26</v>
       </c>
       <c r="J7">
-        <v>0.40517941600000001</v>
+        <v>2.5351794160000001</v>
       </c>
       <c r="K7">
-        <v>8.7716366528493204</v>
+        <v>8.2391366528493197</v>
       </c>
       <c r="L7">
         <v>1999</v>
@@ -5917,10 +5917,10 @@
         <v>26</v>
       </c>
       <c r="J8">
-        <v>0.195121392</v>
+        <v>3.5051213919999999</v>
       </c>
       <c r="K8">
-        <v>14.2425415698082</v>
+        <v>13.415041569808199</v>
       </c>
       <c r="L8">
         <v>2002</v>
@@ -5931,10 +5931,10 @@
         <v>26</v>
       </c>
       <c r="J9">
-        <v>0.32627956000000002</v>
+        <v>3.4862795599999998</v>
       </c>
       <c r="K9">
-        <v>14.9608451784931</v>
+        <v>14.170845178493201</v>
       </c>
       <c r="L9">
         <v>2005</v>
@@ -5945,10 +5945,10 @@
         <v>26</v>
       </c>
       <c r="J10">
-        <v>0.21832922199999999</v>
+        <v>4.1783292220000003</v>
       </c>
       <c r="K10">
-        <v>20.722546461623299</v>
+        <v>19.732546461623301</v>
       </c>
       <c r="L10">
         <v>2008</v>
@@ -5959,10 +5959,10 @@
         <v>26</v>
       </c>
       <c r="J11">
-        <v>0.312422545000001</v>
+        <v>1.762422545</v>
       </c>
       <c r="K11">
-        <v>11.7456998432021</v>
+        <v>11.3831998432021</v>
       </c>
       <c r="L11">
         <v>2010</v>
@@ -5973,10 +5973,10 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>0.54999905100000002</v>
+        <v>1.929999051</v>
       </c>
       <c r="K12">
-        <v>11.9469358536884</v>
+        <v>11.601935853688399</v>
       </c>
       <c r="L12">
         <v>2011</v>
@@ -5987,10 +5987,10 @@
         <v>26</v>
       </c>
       <c r="J13">
-        <v>0.69897781199999998</v>
+        <v>2.2889778120000002</v>
       </c>
       <c r="K13">
-        <v>12.0392706154931</v>
+        <v>11.641770615493099</v>
       </c>
       <c r="L13">
         <v>2012</v>
@@ -6001,10 +6001,10 @@
         <v>26</v>
       </c>
       <c r="J14">
-        <v>0.84305371200000001</v>
+        <v>2.5630537119999999</v>
       </c>
       <c r="K14">
-        <v>11.966405065150701</v>
+        <v>11.536405065150699</v>
       </c>
       <c r="L14">
         <v>2013</v>
@@ -6015,10 +6015,10 @@
         <v>26</v>
       </c>
       <c r="J15">
-        <v>0.77305248150000005</v>
+        <v>3.0030524815000001</v>
       </c>
       <c r="K15">
-        <v>13.306247838529099</v>
+        <v>12.7487478385291</v>
       </c>
       <c r="L15">
         <v>2015</v>
@@ -6031,7 +6031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A04C012-08B0-4790-BE53-351AC5C41280}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6CE0C7-332F-40A2-A516-45A328609E27}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6057,10 +6057,10 @@
         <v>27</v>
       </c>
       <c r="J2">
-        <v>0.232079218</v>
+        <v>2.2820792179999998</v>
       </c>
       <c r="K2">
-        <v>8.6555254009794496</v>
+        <v>8.1430254009794503</v>
       </c>
       <c r="L2">
         <v>1984</v>
@@ -6071,10 +6071,10 @@
         <v>27</v>
       </c>
       <c r="J3">
-        <v>7.9191492000000099E-2</v>
+        <v>2.8991914919999999</v>
       </c>
       <c r="K3">
-        <v>11.050029524260299</v>
+        <v>10.345029524260299</v>
       </c>
       <c r="L3">
         <v>1990</v>
@@ -6085,10 +6085,10 @@
         <v>27</v>
       </c>
       <c r="J4">
-        <v>0.36030458100000001</v>
+        <v>2.2603045810000002</v>
       </c>
       <c r="K4">
-        <v>8.5403320739280808</v>
+        <v>8.0653320739280794</v>
       </c>
       <c r="L4">
         <v>1987</v>
@@ -6099,10 +6099,10 @@
         <v>27</v>
       </c>
       <c r="J5">
-        <v>0.65592320900000001</v>
+        <v>1.675923209</v>
       </c>
       <c r="K5">
-        <v>6.2351383758321903</v>
+        <v>5.9801383758321904</v>
       </c>
       <c r="L5">
         <v>1993</v>
@@ -6113,10 +6113,10 @@
         <v>27</v>
       </c>
       <c r="J6">
-        <v>0.96221122000000003</v>
+        <v>1.33221122</v>
       </c>
       <c r="K6">
-        <v>4.8461814415753404</v>
+        <v>4.7536814415753401</v>
       </c>
       <c r="L6">
         <v>1996</v>
@@ -6127,10 +6127,10 @@
         <v>27</v>
       </c>
       <c r="J7">
-        <v>1.171207661</v>
+        <v>0.96120766099999999</v>
       </c>
       <c r="K7">
-        <v>3.7436421943390399</v>
+        <v>3.7961421943390401</v>
       </c>
       <c r="L7">
         <v>1999</v>
@@ -6141,10 +6141,10 @@
         <v>27</v>
       </c>
       <c r="J8">
-        <v>1.1254051380000001</v>
+        <v>1.535405138</v>
       </c>
       <c r="K8">
-        <v>5.2149610442671204</v>
+        <v>5.1124610442671203</v>
       </c>
       <c r="L8">
         <v>2002</v>
@@ -6155,10 +6155,10 @@
         <v>27</v>
       </c>
       <c r="J9">
-        <v>1.2900115700000001</v>
+        <v>1.63001157</v>
       </c>
       <c r="K9">
-        <v>5.52528203900685</v>
+        <v>5.44028203900685</v>
       </c>
       <c r="L9">
         <v>2005</v>
@@ -6169,10 +6169,10 @@
         <v>27</v>
       </c>
       <c r="J10">
-        <v>0.82500113500000005</v>
+        <v>3.2150011350000001</v>
       </c>
       <c r="K10">
-        <v>10.759933277893801</v>
+        <v>10.1624332778938</v>
       </c>
       <c r="L10">
         <v>2008</v>
@@ -6183,10 +6183,10 @@
         <v>27</v>
       </c>
       <c r="J11">
-        <v>1.0049999650000001</v>
+        <v>3.634999965</v>
       </c>
       <c r="K11">
-        <v>10.9439280909418</v>
+        <v>10.286428090941801</v>
       </c>
       <c r="L11">
         <v>2010</v>
@@ -6197,10 +6197,10 @@
         <v>27</v>
       </c>
       <c r="J12">
-        <v>1.133448703</v>
+        <v>3.903448703</v>
       </c>
       <c r="K12">
-        <v>11.2088611119212</v>
+        <v>10.516361111921199</v>
       </c>
       <c r="L12">
         <v>2011</v>
@@ -6211,10 +6211,10 @@
         <v>27</v>
       </c>
       <c r="J13">
-        <v>1.2691279065000001</v>
+        <v>4.0291279065000003</v>
       </c>
       <c r="K13">
-        <v>10.8976303521421</v>
+        <v>10.2076303521421</v>
       </c>
       <c r="L13">
         <v>2012</v>
@@ -6225,10 +6225,10 @@
         <v>27</v>
       </c>
       <c r="J14">
-        <v>1.3850305919999999</v>
+        <v>4.3850305919999997</v>
       </c>
       <c r="K14">
-        <v>11.6464478314521</v>
+        <v>10.8964478314521</v>
       </c>
       <c r="L14">
         <v>2013</v>
@@ -6239,10 +6239,10 @@
         <v>27</v>
       </c>
       <c r="J15">
-        <v>1.584753002</v>
+        <v>4.6847530019999999</v>
       </c>
       <c r="K15">
-        <v>11.6762925714178</v>
+        <v>10.9012925714178</v>
       </c>
       <c r="L15">
         <v>2015</v>
@@ -6255,7 +6255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC7FA83-2A21-47C0-8DB7-27FEE08888A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF78DC00-C1DA-493F-A59C-02A5AB480296}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6281,10 +6281,10 @@
         <v>28</v>
       </c>
       <c r="J2">
-        <v>-0.61611928250000003</v>
+        <v>5.8838807175000003</v>
       </c>
       <c r="K2">
-        <v>17.405044889118098</v>
+        <v>15.7800448891182</v>
       </c>
       <c r="L2">
         <v>1984</v>
@@ -6295,10 +6295,10 @@
         <v>28</v>
       </c>
       <c r="J3">
-        <v>-0.40732613400000001</v>
+        <v>5.5626738659999999</v>
       </c>
       <c r="K3">
-        <v>16.411089067746602</v>
+        <v>14.9185890677466</v>
       </c>
       <c r="L3">
         <v>1990</v>
@@ -6309,10 +6309,10 @@
         <v>28</v>
       </c>
       <c r="J4">
-        <v>-0.53270355599999997</v>
+        <v>6.0172964440000003</v>
       </c>
       <c r="K4">
-        <v>17.775378628725999</v>
+        <v>16.137878628726</v>
       </c>
       <c r="L4">
         <v>1987</v>
@@ -6323,10 +6323,10 @@
         <v>28</v>
       </c>
       <c r="J5">
-        <v>0.13681837250000001</v>
+        <v>3.9568183724999999</v>
       </c>
       <c r="K5">
-        <v>11.566803626053099</v>
+        <v>10.611803626053099</v>
       </c>
       <c r="L5">
         <v>1993</v>
@@ -6337,10 +6337,10 @@
         <v>28</v>
       </c>
       <c r="J6">
-        <v>0.168213312</v>
+        <v>4.3982133120000002</v>
       </c>
       <c r="K6">
-        <v>12.853134343232901</v>
+        <v>11.7956343432329</v>
       </c>
       <c r="L6">
         <v>1996</v>
@@ -6351,10 +6351,10 @@
         <v>28</v>
       </c>
       <c r="J7">
-        <v>0.149016016</v>
+        <v>4.5190160160000001</v>
       </c>
       <c r="K7">
-        <v>13.212106269972599</v>
+        <v>12.1196062699726</v>
       </c>
       <c r="L7">
         <v>1999</v>
@@ -6365,10 +6365,10 @@
         <v>28</v>
       </c>
       <c r="J8">
-        <v>0.1697340625</v>
+        <v>4.7697340625000004</v>
       </c>
       <c r="K8">
-        <v>13.9420007309503</v>
+        <v>12.792000730950299</v>
       </c>
       <c r="L8">
         <v>2002</v>
@@ -6379,10 +6379,10 @@
         <v>28</v>
       </c>
       <c r="J9">
-        <v>0.219730602</v>
+        <v>5.2797306019999999</v>
       </c>
       <c r="K9">
-        <v>15.424755020732899</v>
+        <v>14.1597550207329</v>
       </c>
       <c r="L9">
         <v>2005</v>
@@ -6393,10 +6393,10 @@
         <v>28</v>
       </c>
       <c r="J10">
-        <v>-0.35586789499999999</v>
+        <v>6.9841321049999996</v>
       </c>
       <c r="K10">
-        <v>20.813328617585601</v>
+        <v>18.9783286175856</v>
       </c>
       <c r="L10">
         <v>2008</v>
@@ -6407,10 +6407,10 @@
         <v>28</v>
       </c>
       <c r="J11">
-        <v>0.373591648</v>
+        <v>6.3635916479999999</v>
       </c>
       <c r="K11">
-        <v>18.287943183890398</v>
+        <v>16.7904431838904</v>
       </c>
       <c r="L11">
         <v>2010</v>
@@ -6421,10 +6421,10 @@
         <v>28</v>
       </c>
       <c r="J12">
-        <v>0.36872838000000002</v>
+        <v>5.9487283800000004</v>
       </c>
       <c r="K12">
-        <v>18.006600096780801</v>
+        <v>16.611600096780801</v>
       </c>
       <c r="L12">
         <v>2011</v>
@@ -6435,10 +6435,10 @@
         <v>28</v>
       </c>
       <c r="J13">
-        <v>0.59310040799999997</v>
+        <v>5.2431004080000001</v>
       </c>
       <c r="K13">
-        <v>16.829596130876698</v>
+        <v>15.6670961308767</v>
       </c>
       <c r="L13">
         <v>2012</v>
@@ -6449,10 +6449,10 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>0.75005132249999995</v>
+        <v>5.2800513225000003</v>
       </c>
       <c r="K14">
-        <v>17.073073470744902</v>
+        <v>15.9405734707449</v>
       </c>
       <c r="L14">
         <v>2013</v>
@@ -6463,10 +6463,10 @@
         <v>28</v>
       </c>
       <c r="J15">
-        <v>1.2260669239999999</v>
+        <v>6.2660669240000004</v>
       </c>
       <c r="K15">
-        <v>18.2188736799589</v>
+        <v>16.958873679958899</v>
       </c>
       <c r="L15">
         <v>2015</v>
@@ -6479,7 +6479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C536D7-94D2-4739-98BC-3205854658E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1B5F00-DA2C-4C55-B5A6-596B8F1A90B5}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6505,10 +6505,10 @@
         <v>29</v>
       </c>
       <c r="J2">
-        <v>-0.52508191999999998</v>
+        <v>5.4649180800000003</v>
       </c>
       <c r="K2">
-        <v>16.986051301917801</v>
+        <v>15.4885513019178</v>
       </c>
       <c r="L2">
         <v>1984</v>
@@ -6519,10 +6519,10 @@
         <v>29</v>
       </c>
       <c r="J3">
-        <v>-0.32342801700000001</v>
+        <v>5.1665719829999999</v>
       </c>
       <c r="K3">
-        <v>16.0155131686336</v>
+        <v>14.643013168633599</v>
       </c>
       <c r="L3">
         <v>1990</v>
@@ -6533,10 +6533,10 @@
         <v>29</v>
       </c>
       <c r="J4">
-        <v>-0.44115823999999998</v>
+        <v>5.5888417600000002</v>
       </c>
       <c r="K4">
-        <v>17.347274491506798</v>
+        <v>15.8397744915068</v>
       </c>
       <c r="L4">
         <v>1987</v>
@@ -6547,10 +6547,10 @@
         <v>29</v>
       </c>
       <c r="J5">
-        <v>0.205063304</v>
+        <v>3.675063304</v>
       </c>
       <c r="K5">
-        <v>11.2832848589315</v>
+        <v>10.415784858931501</v>
       </c>
       <c r="L5">
         <v>1993</v>
@@ -6561,10 +6561,10 @@
         <v>29</v>
       </c>
       <c r="J6">
-        <v>0.21324266750000001</v>
+        <v>4.1332426675000002</v>
       </c>
       <c r="K6">
-        <v>12.694387963262001</v>
+        <v>11.714387963262</v>
       </c>
       <c r="L6">
         <v>1996</v>
@@ -6575,10 +6575,10 @@
         <v>29</v>
       </c>
       <c r="J7">
-        <v>0.20254717999999999</v>
+        <v>4.2325471800000001</v>
       </c>
       <c r="K7">
-        <v>13.0033248488356</v>
+        <v>11.9958248488356</v>
       </c>
       <c r="L7">
         <v>1999</v>
@@ -6589,10 +6589,10 @@
         <v>29</v>
       </c>
       <c r="J8">
-        <v>-2.6727595999999999E-2</v>
+        <v>5.2632724040000003</v>
       </c>
       <c r="K8">
-        <v>16.239603816808199</v>
+        <v>14.917103816808201</v>
       </c>
       <c r="L8">
         <v>2002</v>
@@ -6603,10 +6603,10 @@
         <v>29</v>
       </c>
       <c r="J9">
-        <v>0.19184789599999999</v>
+        <v>4.2518478960000001</v>
       </c>
       <c r="K9">
-        <v>15.452894190383599</v>
+        <v>14.4378941903836</v>
       </c>
       <c r="L9">
         <v>2005</v>
@@ -6617,10 +6617,10 @@
         <v>29</v>
       </c>
       <c r="J10">
-        <v>0.48392722849999997</v>
+        <v>5.5539272285000001</v>
       </c>
       <c r="K10">
-        <v>14.835037370957201</v>
+        <v>13.567537370957201</v>
       </c>
       <c r="L10">
         <v>2008</v>
@@ -6631,10 +6631,10 @@
         <v>29</v>
       </c>
       <c r="J11">
-        <v>0.60691796799999997</v>
+        <v>4.9269179679999997</v>
       </c>
       <c r="K11">
-        <v>14.0979170833425</v>
+        <v>13.0179170833425</v>
       </c>
       <c r="L11">
         <v>2010</v>
@@ -6645,10 +6645,10 @@
         <v>29</v>
       </c>
       <c r="J12">
-        <v>0.75099444699999995</v>
+        <v>5.0009944470000001</v>
       </c>
       <c r="K12">
-        <v>14.2624130320856</v>
+        <v>13.1999130320856</v>
       </c>
       <c r="L12">
         <v>2011</v>
@@ -6659,10 +6659,10 @@
         <v>29</v>
       </c>
       <c r="J13">
-        <v>0.216085417</v>
+        <v>2.8660854169999999</v>
       </c>
       <c r="K13">
-        <v>15.0177649471199</v>
+        <v>14.355264947119901</v>
       </c>
       <c r="L13">
         <v>2012</v>
@@ -6673,10 +6673,10 @@
         <v>29</v>
       </c>
       <c r="J14">
-        <v>1.01850752</v>
+        <v>4.8985075199999999</v>
       </c>
       <c r="K14">
-        <v>13.8704375035616</v>
+        <v>12.9004375035616</v>
       </c>
       <c r="L14">
         <v>2013</v>
@@ -6687,10 +6687,10 @@
         <v>29</v>
       </c>
       <c r="J15">
-        <v>0.98070387700000095</v>
+        <v>5.720703877</v>
       </c>
       <c r="K15">
-        <v>15.6864308800651</v>
+        <v>14.501430880065101</v>
       </c>
       <c r="L15">
         <v>2015</v>
@@ -6703,7 +6703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5739633E-7199-43FB-B6F3-988319F1D14E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD9EAD6-4C03-4218-BB67-BCFA38E00DF4}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6729,10 +6729,10 @@
         <v>30</v>
       </c>
       <c r="J2">
-        <v>-1.4212533000000001</v>
+        <v>10.368746700000001</v>
       </c>
       <c r="K2">
-        <v>28.292373598972599</v>
+        <v>25.344873598972601</v>
       </c>
       <c r="L2">
         <v>1984</v>
@@ -6743,10 +6743,10 @@
         <v>30</v>
       </c>
       <c r="J3">
-        <v>-1.0793529875000001</v>
+        <v>9.8506470124999996</v>
       </c>
       <c r="K3">
-        <v>26.8082040002997</v>
+        <v>24.075704000299702</v>
       </c>
       <c r="L3">
         <v>1990</v>
@@ -6757,10 +6757,10 @@
         <v>30</v>
       </c>
       <c r="J4">
-        <v>-1.2227860749999999</v>
+        <v>10.697213925</v>
       </c>
       <c r="K4">
-        <v>29.126141724229502</v>
+        <v>26.146141724229501</v>
       </c>
       <c r="L4">
         <v>1987</v>
@@ -6771,10 +6771,10 @@
         <v>30</v>
       </c>
       <c r="J5">
-        <v>-0.97227519999999901</v>
+        <v>9.6577248000000004</v>
       </c>
       <c r="K5">
-        <v>26.261805786301402</v>
+        <v>23.604305786301399</v>
       </c>
       <c r="L5">
         <v>1993</v>
@@ -6785,10 +6785,10 @@
         <v>30</v>
       </c>
       <c r="J6">
-        <v>-1.4721059249999999</v>
+        <v>11.247894075</v>
       </c>
       <c r="K6">
-        <v>30.331973056592499</v>
+        <v>27.151973056592499</v>
       </c>
       <c r="L6">
         <v>1996</v>
@@ -6799,10 +6799,10 @@
         <v>30</v>
       </c>
       <c r="J7">
-        <v>-1.5391169375</v>
+        <v>10.6608830625</v>
       </c>
       <c r="K7">
-        <v>30.3910997823202</v>
+        <v>27.3410997823202</v>
       </c>
       <c r="L7">
         <v>1999</v>
@@ -6813,10 +6813,10 @@
         <v>30</v>
       </c>
       <c r="J8">
-        <v>-1.7495388000000001</v>
+        <v>10.6004612</v>
       </c>
       <c r="K8">
-        <v>31.091228535616398</v>
+        <v>28.0037285356164</v>
       </c>
       <c r="L8">
         <v>2002</v>
@@ -6827,10 +6827,10 @@
         <v>30</v>
       </c>
       <c r="J9">
-        <v>-2.70591955</v>
+        <v>15.18408045</v>
       </c>
       <c r="K9">
-        <v>39.021970298458903</v>
+        <v>34.5494702984589</v>
       </c>
       <c r="L9">
         <v>2005</v>
@@ -6841,10 +6841,10 @@
         <v>30</v>
       </c>
       <c r="J10">
-        <v>-2.9013955</v>
+        <v>17.5986045</v>
       </c>
       <c r="K10">
-        <v>43.787595450342501</v>
+        <v>38.662595450342501</v>
       </c>
       <c r="L10">
         <v>2008</v>
@@ -6855,10 +6855,10 @@
         <v>30</v>
       </c>
       <c r="J11">
-        <v>-3.2903728249999999</v>
+        <v>16.819627175000001</v>
       </c>
       <c r="K11">
-        <v>44.202634302140403</v>
+        <v>39.1751343021404</v>
       </c>
       <c r="L11">
         <v>2010</v>
@@ -6869,10 +6869,10 @@
         <v>30</v>
       </c>
       <c r="J12">
-        <v>-3.2141304625</v>
+        <v>16.745869537499999</v>
       </c>
       <c r="K12">
-        <v>43.809888780008599</v>
+        <v>38.819888780008597</v>
       </c>
       <c r="L12">
         <v>2011</v>
@@ -6883,10 +6883,10 @@
         <v>30</v>
       </c>
       <c r="J13">
-        <v>-3.0759457499999998</v>
+        <v>15.55405425</v>
       </c>
       <c r="K13">
-        <v>41.999876848458896</v>
+        <v>37.342376848458898</v>
       </c>
       <c r="L13">
         <v>2012</v>
@@ -6897,10 +6897,10 @@
         <v>30</v>
       </c>
       <c r="J14">
-        <v>-2.9087331249999999</v>
+        <v>15.071266874999999</v>
       </c>
       <c r="K14">
-        <v>41.740775062071897</v>
+        <v>37.2457750620719</v>
       </c>
       <c r="L14">
         <v>2013</v>
@@ -6911,10 +6911,10 @@
         <v>30</v>
       </c>
       <c r="J15">
-        <v>-2.4353743749999999</v>
+        <v>16.134625625000002</v>
       </c>
       <c r="K15">
-        <v>42.786131264982899</v>
+        <v>38.143631264982901</v>
       </c>
       <c r="L15">
         <v>2015</v>
@@ -6927,7 +6927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA5F314-9C7F-4AD2-AFC6-B5D437B13B91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A59B992-4D1A-4F1E-9F0F-C15782B4F97E}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6953,10 +6953,10 @@
         <v>31</v>
       </c>
       <c r="J2">
-        <v>-0.28418360349999999</v>
+        <v>4.0358163964999996</v>
       </c>
       <c r="K2">
-        <v>12.1669719282723</v>
+        <v>11.0869719282723</v>
       </c>
       <c r="L2">
         <v>1984</v>
@@ -6967,10 +6967,10 @@
         <v>31</v>
       </c>
       <c r="J3">
-        <v>-0.18645107899999999</v>
+        <v>4.0235489209999997</v>
       </c>
       <c r="K3">
-        <v>12.105733317695201</v>
+        <v>11.0532333176952</v>
       </c>
       <c r="L3">
         <v>1990</v>
@@ -6981,10 +6981,10 @@
         <v>31</v>
       </c>
       <c r="J4">
-        <v>-0.224011235</v>
+        <v>4.1459887650000002</v>
       </c>
       <c r="K4">
-        <v>12.482097329297901</v>
+        <v>11.389597329297899</v>
       </c>
       <c r="L4">
         <v>1987</v>
@@ -6995,10 +6995,10 @@
         <v>31</v>
       </c>
       <c r="J5">
-        <v>0.89497443200000004</v>
+        <v>1.264974432</v>
       </c>
       <c r="K5">
-        <v>3.5675647481643802</v>
+        <v>3.4750647481643799</v>
       </c>
       <c r="L5">
         <v>1993</v>
@@ -7009,10 +7009,10 @@
         <v>31</v>
       </c>
       <c r="J6">
-        <v>1.2908720410000001</v>
+        <v>0.65087204099999996</v>
       </c>
       <c r="K6">
-        <v>1.6280570582431499</v>
+        <v>1.7880570582431501</v>
       </c>
       <c r="L6">
         <v>1996</v>
@@ -7023,10 +7023,10 @@
         <v>31</v>
       </c>
       <c r="J7">
-        <v>1.233028813</v>
+        <v>0.86302881300000001</v>
       </c>
       <c r="K7">
-        <v>2.2783896460650701</v>
+        <v>2.3708896460650699</v>
       </c>
       <c r="L7">
         <v>1999</v>
@@ -7037,10 +7037,10 @@
         <v>31</v>
       </c>
       <c r="J8">
-        <v>1.2828798720000001</v>
+        <v>1.152879872</v>
       </c>
       <c r="K8">
-        <v>3.28522578542466</v>
+        <v>3.3177257854246598</v>
       </c>
       <c r="L8">
         <v>2002</v>
@@ -7051,10 +7051,10 @@
         <v>31</v>
       </c>
       <c r="J9">
-        <v>1.2791063899999999</v>
+        <v>1.61910639</v>
       </c>
       <c r="K9">
-        <v>4.9782316216780798</v>
+        <v>4.8932316216780798</v>
       </c>
       <c r="L9">
         <v>2005</v>
@@ -7065,10 +7065,10 @@
         <v>31</v>
       </c>
       <c r="J10">
-        <v>1.2483949640000001</v>
+        <v>1.978394964</v>
       </c>
       <c r="K10">
-        <v>5.9568861905068502</v>
+        <v>5.7743861905068501</v>
       </c>
       <c r="L10">
         <v>2008</v>
@@ -7079,10 +7079,10 @@
         <v>31</v>
       </c>
       <c r="J11">
-        <v>1.446179552</v>
+        <v>2.2661795520000001</v>
       </c>
       <c r="K11">
-        <v>6.5570920983013696</v>
+        <v>6.3520920983013696</v>
       </c>
       <c r="L11">
         <v>2010</v>
@@ -7093,10 +7093,10 @@
         <v>31</v>
       </c>
       <c r="J12">
-        <v>1.56832164</v>
+        <v>2.2683216399999999</v>
       </c>
       <c r="K12">
-        <v>6.6717524667123298</v>
+        <v>6.49675246671233</v>
       </c>
       <c r="L12">
         <v>2011</v>
@@ -7107,10 +7107,10 @@
         <v>31</v>
       </c>
       <c r="J13">
-        <v>1.6266681590000001</v>
+        <v>2.266668159</v>
       </c>
       <c r="K13">
-        <v>6.7917425492910999</v>
+        <v>6.6317425492910997</v>
       </c>
       <c r="L13">
         <v>2012</v>
@@ -7121,10 +7121,10 @@
         <v>31</v>
       </c>
       <c r="J14">
-        <v>1.762131302</v>
+        <v>2.2621313019999998</v>
       </c>
       <c r="K14">
-        <v>6.8833178594315099</v>
+        <v>6.7583178594315099</v>
       </c>
       <c r="L14">
         <v>2013</v>
@@ -7135,10 +7135,10 @@
         <v>31</v>
       </c>
       <c r="J15">
-        <v>1.8453424015</v>
+        <v>2.3553424015000002</v>
       </c>
       <c r="K15">
-        <v>7.4584712489400697</v>
+        <v>7.3309712489400702</v>
       </c>
       <c r="L15">
         <v>2015</v>
@@ -7151,7 +7151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340CF3C8-F113-407D-96BD-E37E6B6B1344}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75790A-C06F-46A2-A5B1-266BDF373BD6}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7177,10 +7177,10 @@
         <v>32</v>
       </c>
       <c r="J2">
-        <v>0.867820492</v>
+        <v>0.97782049199999999</v>
       </c>
       <c r="K2">
-        <v>3.8276115893287699</v>
+        <v>3.80011158932877</v>
       </c>
       <c r="L2">
         <v>1984</v>
@@ -7191,10 +7191,10 @@
         <v>32</v>
       </c>
       <c r="J3">
-        <v>0.82094127549999996</v>
+        <v>1.4309412754999999</v>
       </c>
       <c r="K3">
-        <v>5.7135633112619901</v>
+        <v>5.5610633112619903</v>
       </c>
       <c r="L3">
         <v>1990</v>
@@ -7205,10 +7205,10 @@
         <v>32</v>
       </c>
       <c r="J4">
-        <v>0.95504203499999996</v>
+        <v>1.0750420350000001</v>
       </c>
       <c r="K4">
-        <v>4.2079340117979402</v>
+        <v>4.1779340117979498</v>
       </c>
       <c r="L4">
         <v>1987</v>
@@ -7219,10 +7219,10 @@
         <v>32</v>
       </c>
       <c r="J5">
-        <v>0.99215740200000002</v>
+        <v>1.082157402</v>
       </c>
       <c r="K5">
-        <v>4.2280880467602699</v>
+        <v>4.20558804676027</v>
       </c>
       <c r="L5">
         <v>1993</v>
@@ -7233,10 +7233,10 @@
         <v>32</v>
       </c>
       <c r="J6">
-        <v>1.238986312</v>
+        <v>0.82898631199999995</v>
       </c>
       <c r="K6">
-        <v>3.1192123261095901</v>
+        <v>3.2217123261095901</v>
       </c>
       <c r="L6">
         <v>1996</v>
@@ -7247,10 +7247,10 @@
         <v>32</v>
       </c>
       <c r="J7">
-        <v>1.239728801</v>
+        <v>0.87972880099999995</v>
       </c>
       <c r="K7">
-        <v>3.3289514983801398</v>
+        <v>3.4189514983801401</v>
       </c>
       <c r="L7">
         <v>1999</v>
@@ -7261,10 +7261,10 @@
         <v>32</v>
       </c>
       <c r="J8">
-        <v>1.3203556249999999</v>
+        <v>0.94035562500000003</v>
       </c>
       <c r="K8">
-        <v>3.5595208197774002</v>
+        <v>3.6545208197774</v>
       </c>
       <c r="L8">
         <v>2002</v>
@@ -7275,10 +7275,10 @@
         <v>32</v>
       </c>
       <c r="J9">
-        <v>1.4675527365000001</v>
+        <v>1.1175527365</v>
       </c>
       <c r="K9">
-        <v>4.2556803090256796</v>
+        <v>4.34318030902568</v>
       </c>
       <c r="L9">
         <v>2005</v>
@@ -7289,10 +7289,10 @@
         <v>32</v>
       </c>
       <c r="J10">
-        <v>1.47176584</v>
+        <v>1.52176584</v>
       </c>
       <c r="K10">
-        <v>5.92653114273973</v>
+        <v>5.9140311427397299</v>
       </c>
       <c r="L10">
         <v>2008</v>
@@ -7303,10 +7303,10 @@
         <v>32</v>
       </c>
       <c r="J11">
-        <v>1.5406386219999999</v>
+        <v>1.7106386220000001</v>
       </c>
       <c r="K11">
-        <v>6.6905787006643802</v>
+        <v>6.6480787006643798</v>
       </c>
       <c r="L11">
         <v>2010</v>
@@ -7317,10 +7317,10 @@
         <v>32</v>
       </c>
       <c r="J12">
-        <v>1.6191769899999999</v>
+        <v>1.92917699</v>
       </c>
       <c r="K12">
-        <v>7.57484821825342</v>
+        <v>7.4973482182534203</v>
       </c>
       <c r="L12">
         <v>2011</v>
@@ -7331,10 +7331,10 @@
         <v>32</v>
       </c>
       <c r="J13">
-        <v>1.635157526</v>
+        <v>2.1051575260000002</v>
       </c>
       <c r="K13">
-        <v>8.2987722623356106</v>
+        <v>8.1812722623356091</v>
       </c>
       <c r="L13">
         <v>2012</v>
@@ -7345,10 +7345,10 @@
         <v>32</v>
       </c>
       <c r="J14">
-        <v>1.727330912</v>
+        <v>2.277330912</v>
       </c>
       <c r="K14">
-        <v>8.9878754911780803</v>
+        <v>8.8503754911780792</v>
       </c>
       <c r="L14">
         <v>2013</v>
@@ -7359,10 +7359,10 @@
         <v>32</v>
       </c>
       <c r="J15">
-        <v>1.7795054560000001</v>
+        <v>2.5795054560000001</v>
       </c>
       <c r="K15">
-        <v>10.224730485315099</v>
+        <v>10.0247304853151</v>
       </c>
       <c r="L15">
         <v>2015</v>
@@ -7375,7 +7375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6198C05-37FD-42D1-B4A4-8F966C7B99CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412F740D-513E-4DD1-A65A-487D6ABB5AA5}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7401,10 +7401,10 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>-1.7558119999999999</v>
+        <v>7.214188</v>
       </c>
       <c r="K2">
-        <v>25.946259849315101</v>
+        <v>23.703759849315102</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -7415,10 +7415,10 @@
         <v>6</v>
       </c>
       <c r="J3">
-        <v>-1.733293325</v>
+        <v>7.556706675</v>
       </c>
       <c r="K3">
-        <v>27.151471276455499</v>
+        <v>24.828971276455501</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -7429,10 +7429,10 @@
         <v>6</v>
       </c>
       <c r="J4">
-        <v>-1.2993833859999999</v>
+        <v>6.7206166139999999</v>
       </c>
       <c r="K4">
-        <v>24.0868554355411</v>
+        <v>22.081855435541101</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -7443,10 +7443,10 @@
         <v>6</v>
       </c>
       <c r="J5">
-        <v>-1.5816836750000001</v>
+        <v>7.3383163250000001</v>
       </c>
       <c r="K5">
-        <v>26.342289411900701</v>
+        <v>24.112289411900701</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -7457,10 +7457,10 @@
         <v>6</v>
       </c>
       <c r="J6">
-        <v>0.25446390899999999</v>
+        <v>2.8644639089999999</v>
       </c>
       <c r="K6">
-        <v>10.0642319679555</v>
+        <v>9.4117319679554807</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -7471,10 +7471,10 @@
         <v>6</v>
       </c>
       <c r="J7">
-        <v>0.75826833900000001</v>
+        <v>2.0582683390000001</v>
       </c>
       <c r="K7">
-        <v>7.0269822303184899</v>
+        <v>6.7019822303184897</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -7485,10 +7485,10 @@
         <v>6</v>
       </c>
       <c r="J8">
-        <v>0.74680901649999998</v>
+        <v>2.3668090165</v>
       </c>
       <c r="K8">
-        <v>7.9083087047791096</v>
+        <v>7.5033087047791103</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -7499,10 +7499,10 @@
         <v>6</v>
       </c>
       <c r="J9">
-        <v>0.81049112199999995</v>
+        <v>5.1404911220000002</v>
       </c>
       <c r="K9">
-        <v>9.7884292742945203</v>
+        <v>8.7059292742945207</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -7513,10 +7513,10 @@
         <v>6</v>
       </c>
       <c r="J10">
-        <v>1.120797603</v>
+        <v>5.5207976030000001</v>
       </c>
       <c r="K10">
-        <v>10.0425745718527</v>
+        <v>8.9425745718527399</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -7527,10 +7527,10 @@
         <v>6</v>
       </c>
       <c r="J11">
-        <v>0.82388220000000001</v>
+        <v>9.0738821999999999</v>
       </c>
       <c r="K11">
-        <v>16.761059586986299</v>
+        <v>14.698559586986301</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -7541,10 +7541,10 @@
         <v>6</v>
       </c>
       <c r="J12">
-        <v>1.0748905085</v>
+        <v>7.9448905085000003</v>
       </c>
       <c r="K12">
-        <v>14.5866116194503</v>
+        <v>12.869111619450299</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -7555,10 +7555,10 @@
         <v>6</v>
       </c>
       <c r="J13">
-        <v>1.0066387999999999</v>
+        <v>9.7166388000000001</v>
       </c>
       <c r="K13">
-        <v>17.916611532876701</v>
+        <v>15.7391115328767</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -7569,10 +7569,10 @@
         <v>6</v>
       </c>
       <c r="J14">
-        <v>0.91538793750000003</v>
+        <v>9.7953879374999993</v>
       </c>
       <c r="K14">
-        <v>18.094035207405799</v>
+        <v>15.8740352074058</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -7583,10 +7583,10 @@
         <v>6</v>
       </c>
       <c r="J15">
-        <v>1.2513131</v>
+        <v>10.231313099999999</v>
       </c>
       <c r="K15">
-        <v>18.823049807191801</v>
+        <v>16.5780498071918</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -7597,10 +7597,10 @@
         <v>6</v>
       </c>
       <c r="J16">
-        <v>1.2285166249999999</v>
+        <v>10.298516625</v>
       </c>
       <c r="K16">
-        <v>18.950618788955499</v>
+        <v>16.6831187889555</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -7613,7 +7613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE9E186-0DD4-4418-A824-95A6F0A9F2FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C43AD0-D630-4534-9430-47BAE375F1B6}">
   <dimension ref="I1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7639,10 +7639,10 @@
         <v>33</v>
       </c>
       <c r="J2">
-        <v>1.02282125</v>
+        <v>1.99282125</v>
       </c>
       <c r="K2">
-        <v>5.2519453724315097</v>
+        <v>5.00944537243151</v>
       </c>
       <c r="L2">
         <v>1996</v>
@@ -7653,10 +7653,10 @@
         <v>33</v>
       </c>
       <c r="J3">
-        <v>1.0618167665</v>
+        <v>1.9418167664999999</v>
       </c>
       <c r="K3">
-        <v>5.1014307398818497</v>
+        <v>4.8814307398818499</v>
       </c>
       <c r="L3">
         <v>1999</v>
@@ -7667,10 +7667,10 @@
         <v>33</v>
       </c>
       <c r="J4">
-        <v>0.997658724</v>
+        <v>2.5876587240000002</v>
       </c>
       <c r="K4">
-        <v>6.9024168258493104</v>
+        <v>6.5049168258493104</v>
       </c>
       <c r="L4">
         <v>2002</v>
@@ -7681,10 +7681,10 @@
         <v>33</v>
       </c>
       <c r="J5">
-        <v>1.0268183390000001</v>
+        <v>2.5468183390000001</v>
       </c>
       <c r="K5">
-        <v>7.5420296618253397</v>
+        <v>7.1620296618253398</v>
       </c>
       <c r="L5">
         <v>2005</v>
@@ -7695,10 +7695,10 @@
         <v>33</v>
       </c>
       <c r="J6">
-        <v>1.092752846</v>
+        <v>2.8227528460000002</v>
       </c>
       <c r="K6">
-        <v>8.3784090487739693</v>
+        <v>7.9459090487739701</v>
       </c>
       <c r="L6">
         <v>2008</v>
@@ -7709,10 +7709,10 @@
         <v>33</v>
       </c>
       <c r="J7">
-        <v>1.2662011550000001</v>
+        <v>2.8262011550000001</v>
       </c>
       <c r="K7">
-        <v>8.7718716290582197</v>
+        <v>8.3818716290582191</v>
       </c>
       <c r="L7">
         <v>2010</v>
@@ -7723,10 +7723,10 @@
         <v>33</v>
       </c>
       <c r="J8">
-        <v>1.3176268149999999</v>
+        <v>3.1676268150000002</v>
       </c>
       <c r="K8">
-        <v>8.4348467209075295</v>
+        <v>7.97234672090753</v>
       </c>
       <c r="L8">
         <v>2011</v>
@@ -7737,10 +7737,10 @@
         <v>33</v>
       </c>
       <c r="J9">
-        <v>1.2606401185</v>
+        <v>3.7006401185</v>
       </c>
       <c r="K9">
-        <v>10.170892025169501</v>
+        <v>9.5608920251695206</v>
       </c>
       <c r="L9">
         <v>2012</v>
@@ -7751,10 +7751,10 @@
         <v>33</v>
       </c>
       <c r="J10">
-        <v>1.3775388374999999</v>
+        <v>4.1075388374999999</v>
       </c>
       <c r="K10">
-        <v>10.2522892632277</v>
+        <v>9.5697892632277402</v>
       </c>
       <c r="L10">
         <v>2013</v>
@@ -7765,10 +7765,10 @@
         <v>33</v>
       </c>
       <c r="J11">
-        <v>1.5122937160000001</v>
+        <v>4.192293716</v>
       </c>
       <c r="K11">
-        <v>10.609044379219201</v>
+        <v>9.9390443792191796</v>
       </c>
       <c r="L11">
         <v>2015</v>
@@ -7781,7 +7781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DF8561-224C-4730-A985-EF9B3FD48CF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C2FADD-ED1F-4CE4-AB2A-D94769AAAA2A}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7807,10 +7807,10 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>3.8265844500000097E-2</v>
+        <v>4.5182658445000001</v>
       </c>
       <c r="K2">
-        <v>10.1509157306558</v>
+        <v>9.0309157306558205</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -7821,10 +7821,10 @@
         <v>7</v>
       </c>
       <c r="J3">
-        <v>0.14207341600000001</v>
+        <v>4.8620734160000003</v>
       </c>
       <c r="K3">
-        <v>10.898100824082199</v>
+        <v>9.7181008240821907</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -7835,10 +7835,10 @@
         <v>7</v>
       </c>
       <c r="J4">
-        <v>0.30824743999999998</v>
+        <v>4.58824744</v>
       </c>
       <c r="K4">
-        <v>10.2407970441096</v>
+        <v>9.1707970441095892</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -7849,10 +7849,10 @@
         <v>7</v>
       </c>
       <c r="J5">
-        <v>0.26686191999999997</v>
+        <v>4.8468619200000003</v>
       </c>
       <c r="K5">
-        <v>10.8327036980822</v>
+        <v>9.6877036980821902</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -7863,10 +7863,10 @@
         <v>7</v>
       </c>
       <c r="J6">
-        <v>0.52823223399999997</v>
+        <v>3.8482322340000001</v>
       </c>
       <c r="K6">
-        <v>8.5216967360205498</v>
+        <v>7.6916967360205497</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -7877,10 +7877,10 @@
         <v>7</v>
       </c>
       <c r="J7">
-        <v>-4.4103796999999799E-2</v>
+        <v>4.6458962030000004</v>
       </c>
       <c r="K7">
-        <v>13.665435538291099</v>
+        <v>12.4929355382911</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -7891,10 +7891,10 @@
         <v>7</v>
       </c>
       <c r="J8">
-        <v>0.891360865</v>
+        <v>1.7913608649999999</v>
       </c>
       <c r="K8">
-        <v>5.6563173179965798</v>
+        <v>5.4313173179965704</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -7905,10 +7905,10 @@
         <v>7</v>
       </c>
       <c r="J9">
-        <v>0.67823631200000001</v>
+        <v>2.9482363120000001</v>
       </c>
       <c r="K9">
-        <v>8.7295053055616396</v>
+        <v>8.1620053055616406</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -7919,10 +7919,10 @@
         <v>7</v>
       </c>
       <c r="J10">
-        <v>0.45873406999999999</v>
+        <v>4.4987340700000003</v>
       </c>
       <c r="K10">
-        <v>12.564035660582199</v>
+        <v>11.554035660582199</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -7933,10 +7933,10 @@
         <v>7</v>
       </c>
       <c r="J11">
-        <v>4.71540500000001E-2</v>
+        <v>6.2971540499999996</v>
       </c>
       <c r="K11">
-        <v>17.4897018984589</v>
+        <v>15.9272018984589</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -7947,10 +7947,10 @@
         <v>7</v>
       </c>
       <c r="J12">
-        <v>0.128313432000001</v>
+        <v>7.028313432</v>
       </c>
       <c r="K12">
-        <v>19.9089791762466</v>
+        <v>18.183979176246599</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -7961,10 +7961,10 @@
         <v>7</v>
       </c>
       <c r="J13">
-        <v>3.6657517000000098E-2</v>
+        <v>7.4766575169999996</v>
       </c>
       <c r="K13">
-        <v>20.418143839928099</v>
+        <v>18.5581438399281</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -7975,10 +7975,10 @@
         <v>7</v>
       </c>
       <c r="J14">
-        <v>4.509995E-2</v>
+        <v>8.6750999499999999</v>
       </c>
       <c r="K14">
-        <v>22.864608574143801</v>
+        <v>20.707108574143799</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -7989,10 +7989,10 @@
         <v>7</v>
       </c>
       <c r="J15">
-        <v>-4.6141374999999502E-3</v>
+        <v>9.7253858624999996</v>
       </c>
       <c r="K15">
-        <v>25.503717917936601</v>
+        <v>23.0712179179366</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -8003,10 +8003,10 @@
         <v>7</v>
       </c>
       <c r="J16">
-        <v>-6.4151999999992899E-3</v>
+        <v>9.5635847999999992</v>
       </c>
       <c r="K16">
-        <v>25.136051745205499</v>
+        <v>22.743551745205501</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -8019,7 +8019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFB4716-522B-4124-BAEF-D55E5C540048}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330FFCCD-32F7-4C25-8A5C-EA95918E1DCD}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8045,10 +8045,10 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>-1.2004154</v>
+        <v>9.7695846</v>
       </c>
       <c r="K2">
-        <v>23.7344641239726</v>
+        <v>20.9919641239726</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -8059,10 +8059,10 @@
         <v>8</v>
       </c>
       <c r="J3">
-        <v>-1.310341325</v>
+        <v>10.979658675</v>
       </c>
       <c r="K3">
-        <v>26.6635332764555</v>
+        <v>23.591033276455502</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -8073,10 +8073,10 @@
         <v>8</v>
       </c>
       <c r="J4">
-        <v>-1.750107125</v>
+        <v>12.179892875</v>
       </c>
       <c r="K4">
-        <v>30.509888425085599</v>
+        <v>27.027388425085601</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -8087,10 +8087,10 @@
         <v>8</v>
       </c>
       <c r="J5">
-        <v>-1.6187115875</v>
+        <v>11.8012884125</v>
       </c>
       <c r="K5">
-        <v>28.711366937970901</v>
+        <v>25.3563669379709</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -8101,10 +8101,10 @@
         <v>8</v>
       </c>
       <c r="J6">
-        <v>-0.59240216700000004</v>
+        <v>7.6175978329999996</v>
       </c>
       <c r="K6">
-        <v>18.693073144489698</v>
+        <v>16.6405731444897</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -8115,10 +8115,10 @@
         <v>8</v>
       </c>
       <c r="J7">
-        <v>0.24171536699999999</v>
+        <v>4.4817153669999996</v>
       </c>
       <c r="K7">
-        <v>13.348469788387</v>
+        <v>12.288469788386999</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -8129,10 +8129,10 @@
         <v>8</v>
       </c>
       <c r="J8">
-        <v>0.336069232</v>
+        <v>3.2760692320000002</v>
       </c>
       <c r="K8">
-        <v>9.6197621440547891</v>
+        <v>8.8847621440548004</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -8143,10 +8143,10 @@
         <v>8</v>
       </c>
       <c r="J9">
-        <v>0.12071652400000001</v>
+        <v>3.790716524</v>
       </c>
       <c r="K9">
-        <v>12.139189362150701</v>
+        <v>11.2216893621507</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -8157,10 +8157,10 @@
         <v>8</v>
       </c>
       <c r="J10">
-        <v>0.22108486999999999</v>
+        <v>4.5610848700000002</v>
       </c>
       <c r="K10">
-        <v>13.1637068646918</v>
+        <v>12.078706864691799</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -8171,10 +8171,10 @@
         <v>8</v>
       </c>
       <c r="J11">
-        <v>-0.70269869500000004</v>
+        <v>5.607301305</v>
       </c>
       <c r="K11">
-        <v>20.377777413476</v>
+        <v>18.800277413476</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -8185,10 +8185,10 @@
         <v>8</v>
       </c>
       <c r="J12">
-        <v>-0.68664780199999997</v>
+        <v>5.0533521979999998</v>
       </c>
       <c r="K12">
-        <v>20.3592824984452</v>
+        <v>18.924282498445201</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -8199,10 +8199,10 @@
         <v>8</v>
       </c>
       <c r="J13">
-        <v>-0.584529619</v>
+        <v>4.7954703810000003</v>
       </c>
       <c r="K13">
-        <v>18.8513008979007</v>
+        <v>17.506300897900701</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -8213,10 +8213,10 @@
         <v>8</v>
       </c>
       <c r="J14">
-        <v>-0.52027598750000004</v>
+        <v>4.8397240124999996</v>
       </c>
       <c r="K14">
-        <v>19.794230640710602</v>
+        <v>18.454230640710598</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -8227,10 +8227,10 @@
         <v>8</v>
       </c>
       <c r="J15">
-        <v>-0.91176389099999999</v>
+        <v>5.0282361089999998</v>
       </c>
       <c r="K15">
-        <v>22.186058780969201</v>
+        <v>20.701058780969198</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -8241,10 +8241,10 @@
         <v>8</v>
       </c>
       <c r="J16">
-        <v>-0.77869328549999905</v>
+        <v>5.9113067145000002</v>
       </c>
       <c r="K16">
-        <v>24.807055513155799</v>
+        <v>23.134555513155799</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -8257,7 +8257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD411EA4-1356-4EAD-A095-820CBEB96E10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB02B75-0D35-49E4-B5B6-A29C556F9C2E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8283,10 +8283,10 @@
         <v>9</v>
       </c>
       <c r="J2">
-        <v>-1.9655069999999999</v>
+        <v>10.254493</v>
       </c>
       <c r="K2">
-        <v>25.362289078767098</v>
+        <v>22.307289078767099</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -8297,10 +8297,10 @@
         <v>9</v>
       </c>
       <c r="J3">
-        <v>-1.45778875</v>
+        <v>9.8322112500000003</v>
       </c>
       <c r="K3">
-        <v>24.213641708047899</v>
+        <v>21.3911417080479</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -8311,10 +8311,10 @@
         <v>9</v>
       </c>
       <c r="J4">
-        <v>-1.8108082000000001</v>
+        <v>9.8691917999999994</v>
       </c>
       <c r="K4">
-        <v>25.3447499952055</v>
+        <v>22.424749995205499</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -8325,10 +8325,10 @@
         <v>9</v>
       </c>
       <c r="J5">
-        <v>-1.6644052625000001</v>
+        <v>10.255594737499999</v>
       </c>
       <c r="K5">
-        <v>25.289623233433201</v>
+        <v>22.3096232334332</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -8339,10 +8339,10 @@
         <v>9</v>
       </c>
       <c r="J6">
-        <v>-1.593068725</v>
+        <v>7.7869312749999997</v>
       </c>
       <c r="K6">
-        <v>22.272911016866399</v>
+        <v>19.9279110168664</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -8353,10 +8353,10 @@
         <v>9</v>
       </c>
       <c r="J7">
-        <v>-1.579338525</v>
+        <v>7.1406614749999999</v>
       </c>
       <c r="K7">
-        <v>21.967633261387</v>
+        <v>19.787633261387001</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -8367,10 +8367,10 @@
         <v>9</v>
       </c>
       <c r="J8">
-        <v>-0.66159679699999996</v>
+        <v>7.5584032030000001</v>
       </c>
       <c r="K8">
-        <v>20.635804678702101</v>
+        <v>18.580804678702101</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -8381,10 +8381,10 @@
         <v>9</v>
       </c>
       <c r="J9">
-        <v>-1.0383817875000001</v>
+        <v>9.0616182125000009</v>
       </c>
       <c r="K9">
-        <v>27.3920680496147</v>
+        <v>24.867068049614701</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -8395,10 +8395,10 @@
         <v>9</v>
       </c>
       <c r="J10">
-        <v>-1.7685105000000001</v>
+        <v>11.371489499999999</v>
       </c>
       <c r="K10">
-        <v>34.512589268835598</v>
+        <v>31.227589268835601</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -8409,10 +8409,10 @@
         <v>9</v>
       </c>
       <c r="J11">
-        <v>-1.2483115</v>
+        <v>10.7516885</v>
       </c>
       <c r="K11">
-        <v>33.977876505136997</v>
+        <v>30.977876505137001</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -8423,10 +8423,10 @@
         <v>9</v>
       </c>
       <c r="J12">
-        <v>-0.71687489999999898</v>
+        <v>10.393125100000001</v>
       </c>
       <c r="K12">
-        <v>27.905046122260298</v>
+        <v>25.127546122260298</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -8437,10 +8437,10 @@
         <v>9</v>
       </c>
       <c r="J13">
-        <v>-0.684940221499999</v>
+        <v>6.2550597784999997</v>
       </c>
       <c r="K13">
-        <v>22.858673411539399</v>
+        <v>21.1236734115394</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -8451,10 +8451,10 @@
         <v>9</v>
       </c>
       <c r="J14">
-        <v>-0.51587667049999997</v>
+        <v>5.9441233295</v>
       </c>
       <c r="K14">
-        <v>21.695192455296201</v>
+        <v>20.080192455296199</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -8465,10 +8465,10 @@
         <v>9</v>
       </c>
       <c r="J15">
-        <v>-0.22561087499999999</v>
+        <v>6.0043891250000003</v>
       </c>
       <c r="K15">
-        <v>21.297426006421201</v>
+        <v>19.7399260064212</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -8479,10 +8479,10 @@
         <v>9</v>
       </c>
       <c r="J16">
-        <v>-0.40212379799999998</v>
+        <v>6.7978762020000003</v>
       </c>
       <c r="K16">
-        <v>23.494481634431502</v>
+        <v>21.694481634431501</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -8495,7 +8495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F15235-AEBF-4FBE-84FB-796F6223228F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55ABCDAF-48D2-4921-97F5-1CBC93B762BB}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8521,10 +8521,10 @@
         <v>10</v>
       </c>
       <c r="J2">
-        <v>-0.47811786249999999</v>
+        <v>8.7418821374999993</v>
       </c>
       <c r="K2">
-        <v>21.062936314940099</v>
+        <v>18.7579363149401</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -8535,10 +8535,10 @@
         <v>10</v>
       </c>
       <c r="J3">
-        <v>-0.36648785</v>
+        <v>8.9235121500000005</v>
       </c>
       <c r="K3">
-        <v>21.4662890857877</v>
+        <v>19.143789085787699</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -8549,10 +8549,10 @@
         <v>10</v>
       </c>
       <c r="J4">
-        <v>-0.51147900000000002</v>
+        <v>10.168521</v>
       </c>
       <c r="K4">
-        <v>24.482301256849301</v>
+        <v>21.812301256849299</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -8563,10 +8563,10 @@
         <v>10</v>
       </c>
       <c r="J5">
-        <v>-0.48228837499999999</v>
+        <v>9.4377116250000004</v>
       </c>
       <c r="K5">
-        <v>22.724277573202102</v>
+        <v>20.244277573202101</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -8577,10 +8577,10 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <v>-0.325192975</v>
+        <v>8.8048070250000006</v>
       </c>
       <c r="K6">
-        <v>21.169383175256801</v>
+        <v>18.886883175256798</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -8591,10 +8591,10 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <v>-1.027039375</v>
+        <v>9.9429606249999996</v>
       </c>
       <c r="K7">
-        <v>24.5823790218322</v>
+        <v>21.8398790218322</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -8605,10 +8605,10 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <v>-1.3323587125</v>
+        <v>9.8676412874999997</v>
       </c>
       <c r="K8">
-        <v>25.590903376755101</v>
+        <v>22.7909033767551</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -8619,10 +8619,10 @@
         <v>10</v>
       </c>
       <c r="J9">
-        <v>-1.628393175</v>
+        <v>9.9716068250000003</v>
       </c>
       <c r="K9">
-        <v>27.131838019777401</v>
+        <v>24.231838019777399</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -8633,10 +8633,10 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <v>-1.6001101874999999</v>
+        <v>10.7898898125</v>
       </c>
       <c r="K10">
-        <v>29.4618946701627</v>
+        <v>26.364394670162699</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -8647,10 +8647,10 @@
         <v>10</v>
       </c>
       <c r="J11">
-        <v>-2.06183125</v>
+        <v>12.938168750000001</v>
       </c>
       <c r="K11">
-        <v>33.575815346746602</v>
+        <v>29.825815346746602</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -8661,10 +8661,10 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <v>-2.3001228999999999</v>
+        <v>12.5598771</v>
       </c>
       <c r="K12">
-        <v>34.066936204452098</v>
+        <v>30.351936204452102</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -8675,10 +8675,10 @@
         <v>10</v>
       </c>
       <c r="J13">
-        <v>-1.9664187125000001</v>
+        <v>12.4935812875</v>
       </c>
       <c r="K13">
-        <v>33.941559472645501</v>
+        <v>30.326559472645499</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -8689,10 +8689,10 @@
         <v>10</v>
       </c>
       <c r="J14">
-        <v>-1.553164575</v>
+        <v>12.576835425000001</v>
       </c>
       <c r="K14">
-        <v>33.271122650599303</v>
+        <v>29.7386226505993</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -8703,10 +8703,10 @@
         <v>10</v>
       </c>
       <c r="J15">
-        <v>-1.7173362750000001</v>
+        <v>12.512663724999999</v>
       </c>
       <c r="K15">
-        <v>33.5398655755993</v>
+        <v>29.982365575599299</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -8717,10 +8717,10 @@
         <v>10</v>
       </c>
       <c r="J16">
-        <v>-1.6839533</v>
+        <v>13.6360467</v>
       </c>
       <c r="K16">
-        <v>35.689165037328799</v>
+        <v>31.8591650373288</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -8733,7 +8733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABFACE0-2CA0-49D4-ABBC-AC60962A6E22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E059FB-ECB0-4FD7-B318-48C6219F464F}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8759,10 +8759,10 @@
         <v>11</v>
       </c>
       <c r="J2">
-        <v>-0.69010424599999998</v>
+        <v>4.5098957540000004</v>
       </c>
       <c r="K2">
-        <v>17.769983595746599</v>
+        <v>16.469983595746601</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -8773,10 +8773,10 @@
         <v>11</v>
       </c>
       <c r="J3">
-        <v>-0.640567004</v>
+        <v>4.8594329959999998</v>
       </c>
       <c r="K3">
-        <v>19.121469148260299</v>
+        <v>17.746469148260299</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -8787,10 +8787,10 @@
         <v>11</v>
       </c>
       <c r="J4">
-        <v>-0.62170183499999998</v>
+        <v>5.1082981649999999</v>
       </c>
       <c r="K4">
-        <v>20.087819979297901</v>
+        <v>18.6553199792979</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -8801,10 +8801,10 @@
         <v>11</v>
       </c>
       <c r="J5">
-        <v>-0.50574746250000002</v>
+        <v>4.8142525374999998</v>
       </c>
       <c r="K5">
-        <v>18.911483440967501</v>
+        <v>17.581483440967499</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -8815,10 +8815,10 @@
         <v>11</v>
       </c>
       <c r="J6">
-        <v>2.13614850000001E-2</v>
+        <v>3.5513614850000002</v>
       </c>
       <c r="K6">
-        <v>13.8519472999829</v>
+        <v>12.9694472999829</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -8829,10 +8829,10 @@
         <v>11</v>
       </c>
       <c r="J7">
-        <v>0.30273095700000002</v>
+        <v>3.8427309570000001</v>
       </c>
       <c r="K7">
-        <v>12.5812473977363</v>
+        <v>11.6962473977363</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -8843,10 +8843,10 @@
         <v>11</v>
       </c>
       <c r="J8">
-        <v>0.25822657999999998</v>
+        <v>3.7482265799999999</v>
       </c>
       <c r="K8">
-        <v>13.610840615274</v>
+        <v>12.738340615274</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -8857,10 +8857,10 @@
         <v>11</v>
       </c>
       <c r="J9">
-        <v>0.27035185350000002</v>
+        <v>3.6903518535000002</v>
       </c>
       <c r="K9">
-        <v>13.281820255803099</v>
+        <v>12.426820255803101</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -8871,10 +8871,10 @@
         <v>11</v>
       </c>
       <c r="J10">
-        <v>-1.0788982650000001</v>
+        <v>6.4711017350000004</v>
       </c>
       <c r="K10">
-        <v>22.270725936112999</v>
+        <v>20.383225936113</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -8885,10 +8885,10 @@
         <v>11</v>
       </c>
       <c r="J11">
-        <v>-1.9632704375000001</v>
+        <v>9.2867295624999997</v>
       </c>
       <c r="K11">
-        <v>30.312218979238001</v>
+        <v>27.499718979238001</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -8899,10 +8899,10 @@
         <v>11</v>
       </c>
       <c r="J12">
-        <v>-1.7691541749999999</v>
+        <v>7.5908458249999997</v>
       </c>
       <c r="K12">
-        <v>26.8366584067637</v>
+        <v>24.4966584067637</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -8913,10 +8913,10 @@
         <v>11</v>
       </c>
       <c r="J13">
-        <v>-1.7231744</v>
+        <v>7.9868256000000004</v>
       </c>
       <c r="K13">
-        <v>27.789827846575299</v>
+        <v>25.362327846575301</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -8927,10 +8927,10 @@
         <v>11</v>
       </c>
       <c r="J14">
-        <v>-1.6503068750000001</v>
+        <v>8.4796931250000007</v>
       </c>
       <c r="K14">
-        <v>29.3460315132705</v>
+        <v>26.8135315132706</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -8941,10 +8941,10 @@
         <v>11</v>
       </c>
       <c r="J15">
-        <v>-1.9063284</v>
+        <v>8.5736716000000008</v>
       </c>
       <c r="K15">
-        <v>31.9866094972603</v>
+        <v>29.366609497260299</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -8955,10 +8955,10 @@
         <v>11</v>
       </c>
       <c r="J16">
-        <v>-2.199442925</v>
+        <v>10.870557075000001</v>
       </c>
       <c r="K16">
-        <v>36.951384018921203</v>
+        <v>33.683884018921198</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -8971,7 +8971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFDCBA3-06DA-4FE3-A47B-29B6055BBA06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210C97DF-5080-4DF5-85D0-8615A00CDC6A}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8997,10 +8997,10 @@
         <v>12</v>
       </c>
       <c r="J2">
-        <v>-2.6913133999999999</v>
+        <v>8.2786866000000003</v>
       </c>
       <c r="K2">
-        <v>34.447592733561599</v>
+        <v>31.7050927335616</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -9011,10 +9011,10 @@
         <v>12</v>
       </c>
       <c r="J3">
-        <v>-2.9909317125000001</v>
+        <v>9.0490682875000008</v>
       </c>
       <c r="K3">
-        <v>37.665942517166101</v>
+        <v>34.655942517166103</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -9025,10 +9025,10 @@
         <v>12</v>
       </c>
       <c r="J4">
-        <v>-1.8341715125</v>
+        <v>7.0958284875000004</v>
       </c>
       <c r="K4">
-        <v>29.409196302782501</v>
+        <v>27.176696302782499</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -9039,10 +9039,10 @@
         <v>12</v>
       </c>
       <c r="J5">
-        <v>-2.5638762499999999</v>
+        <v>8.6061237500000001</v>
       </c>
       <c r="K5">
-        <v>35.750938925513701</v>
+        <v>32.958438925513697</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -9053,10 +9053,10 @@
         <v>12</v>
       </c>
       <c r="J6">
-        <v>0.39269649499999998</v>
+        <v>2.1326964949999998</v>
       </c>
       <c r="K6">
-        <v>8.6024382050171209</v>
+        <v>8.1674382050171204</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -9067,10 +9067,10 @@
         <v>12</v>
       </c>
       <c r="J7">
-        <v>0.46949643899999999</v>
+        <v>2.3194964389999999</v>
       </c>
       <c r="K7">
-        <v>9.3452916436746598</v>
+        <v>8.8827916436746595</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -9081,10 +9081,10 @@
         <v>12</v>
       </c>
       <c r="J8">
-        <v>0.88882897500000002</v>
+        <v>1.2388289750000001</v>
       </c>
       <c r="K8">
-        <v>5.5169982357020499</v>
+        <v>5.4294982357020496</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -9095,10 +9095,10 @@
         <v>12</v>
       </c>
       <c r="J9">
-        <v>0.88091740399999996</v>
+        <v>1.7109174039999999</v>
       </c>
       <c r="K9">
-        <v>6.5795665394109601</v>
+        <v>6.3720665394109597</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -9109,10 +9109,10 @@
         <v>12</v>
       </c>
       <c r="J10">
-        <v>1.09247721</v>
+        <v>1.66247721</v>
       </c>
       <c r="K10">
-        <v>6.5144916564041102</v>
+        <v>6.3719916564041101</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -9123,10 +9123,10 @@
         <v>12</v>
       </c>
       <c r="J11">
-        <v>1.2441954415000001</v>
+        <v>1.6541954415</v>
       </c>
       <c r="K11">
-        <v>6.59929497524144</v>
+        <v>6.49679497524144</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -9137,10 +9137,10 @@
         <v>12</v>
       </c>
       <c r="J12">
-        <v>1.359006927</v>
+        <v>1.599006927</v>
       </c>
       <c r="K12">
-        <v>6.8389236107157503</v>
+        <v>6.7789236107157498</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -9151,10 +9151,10 @@
         <v>12</v>
       </c>
       <c r="J13">
-        <v>1.42342693</v>
+        <v>1.67342693</v>
       </c>
       <c r="K13">
-        <v>7.1095158702397301</v>
+        <v>7.0470158702397301</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -9165,10 +9165,10 @@
         <v>12</v>
       </c>
       <c r="J14">
-        <v>1.506002976</v>
+        <v>1.8960029759999999</v>
       </c>
       <c r="K14">
-        <v>7.5836129546301398</v>
+        <v>7.4861129546301397</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -9179,10 +9179,10 @@
         <v>12</v>
       </c>
       <c r="J15">
-        <v>1.618664624</v>
+        <v>2.138664624</v>
       </c>
       <c r="K15">
-        <v>8.2694639809863002</v>
+        <v>8.1394639809862994</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -9193,10 +9193,10 @@
         <v>12</v>
       </c>
       <c r="J16">
-        <v>1.7274271919999999</v>
+        <v>2.4874271920000002</v>
       </c>
       <c r="K16">
-        <v>8.7553185444657498</v>
+        <v>8.5653185444657503</v>
       </c>
       <c r="L16">
         <v>2015</v>

--- a/data/NP20versusRestIncomeTrendsECA.xlsx
+++ b/data/NP20versusRestIncomeTrendsECA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4769BF74-BC9D-4610-97A0-45600CD3AA3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E49EA30E-DA87-4545-8A60-C8772CA76D12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="25" activeTab="29" xr2:uid="{0CA3022A-F4A6-4A5C-8FBE-18B73F3F811A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="25" activeTab="29" xr2:uid="{468118AC-C56F-44A6-9CB0-24EE4CB5F360}"/>
   </bookViews>
   <sheets>
     <sheet name="Albania" sheetId="2" r:id="rId1"/>
@@ -235,7 +235,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{248A4694-47A7-43A5-A891-7F0C0DA8F900}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F48A049D-E05B-4353-8A4F-16317D03764D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -293,7 +293,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C34797C-2774-441D-8EDA-21008BC4CF33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5771DFB8-8C4E-4EF3-A01F-B5DE96A2671D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -351,7 +351,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57B8B801-DF24-473B-9D38-7E47C5923C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A1FD3F-D5FA-4B32-907B-A009D5ACF21B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -409,7 +409,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4C6DA55-FE28-4715-9A37-2CDCF2AA9FE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D537D1-F88C-4ED2-8EC2-519C759D44A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -467,7 +467,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8999A7E6-79DC-46DD-85FC-2BE7D6D865BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F09A5DF-A57D-4E45-9E7E-806A6ABE0612}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -525,7 +525,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F40DAF-F9B2-4C1F-8A5A-2E0AF78064FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9147B8A3-BC3E-4204-8919-9425AE3F60CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -583,7 +583,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A1121F-1F23-4F92-B854-01BDD628AA59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACC4A2FA-CE2E-41E4-8B7D-89B731F5C8A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -641,7 +641,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61746E24-5773-448E-AB10-9E897716A5EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD74F4EA-21B0-40B1-93A4-EDB494C57074}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -699,7 +699,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF28C4F-056E-4A46-AB89-F0BBC4061A18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B77891-1689-4611-A422-B009AF155C88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -757,7 +757,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404A40E4-803B-4F48-A990-361CD82C47BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0911B8A6-2E19-4C2B-949F-6D3802BA1620}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -815,7 +815,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41DD21E-64F6-4891-A936-5A8C90B6D525}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E2F60A-92F8-4DA5-B761-8BEB433E57E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -873,7 +873,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29489960-4AFD-4B10-990F-E943052CE518}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B910CE-C8F7-438B-89AF-B3F3E9B93601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -931,7 +931,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2EB4CDB-E972-461D-9ACB-DE69C7F895AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A646684D-1805-4290-9587-F53CD6F1FCF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -989,7 +989,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DD80DA8-8188-416E-B60E-797D229F9B9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A1B0FB-EC58-449F-A7D2-5AC309811C30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1047,7 +1047,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D4BA59-14C4-4095-9AE1-355AFF218CA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E402302B-3507-4DE9-9916-D32DC142934B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1105,7 +1105,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121F0B08-DC1B-480C-8172-27DFD8A4CC9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ABCD034-D095-48C0-8B9D-6BC17694B590}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,7 +1163,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB8BBD2-3DDD-48AC-A9B9-36F359B16C9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B991717F-E448-4476-85A7-EE47198F06DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,7 +1221,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{818FD898-6271-4727-8955-D63EFCCDA05F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B83EEC5-3D6E-43F4-9718-45471E8C303F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1279,7 +1279,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CAEC0FF-1FD2-4B3E-985C-EF917C92F253}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC326CD2-7782-479D-AD1A-B3828694A72F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1337,7 +1337,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A24E5B1-4B7E-44F7-88E6-8DAB8B651433}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A2D5BA0-2D12-49C1-9372-8053BDBE8BF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1395,7 +1395,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A253BA0C-3A1D-48DA-A424-0BA6A55D224D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC61D18B-E88F-4C25-B1ED-D898765FB71C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1453,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D8D7AA7-2885-4AB6-9CFC-EFEC117D4275}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB0C1EAF-8B4A-4A69-B536-4BB78C1EF009}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,7 +1511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69026A1A-1A55-46D0-A798-33BD5D5524C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E72D8F-9E3B-45F9-9330-7723F1A1371F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1569,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D46A4BBC-69A2-4DAC-8168-ACAC25C71AAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18809BC4-8553-44D0-87C9-E7721ECBF383}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1627,7 +1627,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4AD9E2-A7F9-4262-BB98-D395C9745F98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC14C8E-C8EF-49B0-B5DD-2DFAC7905387}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1685,7 +1685,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11A5434-F891-4E4C-9137-C4647969766B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03AD09FD-C518-4D15-85B5-B86790B5176B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1743,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37743E8-53A9-410F-9C20-8880FE651CAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C5C8E5-9683-41B3-B2FD-5101AD5A7DCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,7 +1801,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5A6B56-8661-4CF8-AEC0-5D60ECF29E9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D22AFE-322E-47DD-B1D1-10FA660F22BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1859,7 +1859,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE79426F-A17A-4914-83D6-4820AC615DD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76F8969-940B-4722-AAB4-4490366EFBC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1917,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1024D70A-6212-4B9F-B41A-813C1BE06EDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE4097B7-76D4-49AD-BEC1-55BAA961E854}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2D94E0-EB6C-4F3B-92D2-B89A1AEB293E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6374F2-3BF9-4528-8E54-A352A492B248}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2489,7 +2489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43549D5-8CCC-464C-9225-7B7E043ABDB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC0CD80-29B0-470B-87CA-F54B0D2F4D91}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2727,7 +2727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8AFB52-98AC-4184-96A8-4762BFB8723A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A00564D-7498-45F4-8A9B-B62882D34803}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2965,7 +2965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4B21DF-EBC7-43FC-8AA1-93D2C309079C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBBEB86-75EC-425B-8B3C-643C6445333B}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3203,7 +3203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C227AA-FA28-483B-B538-ED7C30F441FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A32345E-C43E-49BD-93F7-5D52585394DA}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3441,7 +3441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0067B7FA-D257-4316-A7FB-C63A18A01CFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02DD4D7-3AEF-4EF3-B418-FE7AE1CB0E0F}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3679,7 +3679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED108218-844D-4208-8288-69D59DDF7F7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CA37C2-96D1-43EE-BEB2-33227047FC8D}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3917,7 +3917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F6CF81-15EC-4FCD-A973-646BE1157054}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6ED8569-1CE6-4633-85C8-B0ACFFB7A706}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4155,7 +4155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1D74D4-D765-4322-857C-3D21DE76A1D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD00177-4166-4670-AF1C-AAA037A37A14}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4393,7 +4393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F22024-EB77-43C3-9B92-04AADB8802EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843C6681-11B5-473D-9AE6-1B1397C296C2}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4631,7 +4631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65530A55-C25B-4B3E-9164-FECF246366D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1B98F0-255B-48D4-95FF-B5E3CE8D318C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4869,7 +4869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B39A3AE-5519-4CCF-B4C0-D5E15AD41D03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C477EC36-E9BE-4CF3-A955-ACAD6AC81BD3}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5107,7 +5107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1A9A88-5FAA-4DCC-9EE2-34B7CC29F1FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18818ABC-2AA4-4A25-A139-BB9A60B66654}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5345,7 +5345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3BB252-0359-4F81-8BDA-830F0125CBE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A076F555-3587-4B49-9C25-4D5643906BDE}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5583,7 +5583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9929BF2-7B14-4E54-9CCD-E5E35EF09101}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80634606-B478-4E08-ADA6-B85D3B0D6709}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5807,7 +5807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683F67AF-1F06-4CEF-8A7C-CC7CAD23DC7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E23406F-9A4F-4D28-B740-B1F9CA7046EA}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6031,7 +6031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6CE0C7-332F-40A2-A516-45A328609E27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D650BF3-3C67-439D-9879-CC277BD99B80}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6255,7 +6255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF78DC00-C1DA-493F-A59C-02A5AB480296}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E173BD2-4FD6-48DC-8332-DC944DA2CB87}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6479,7 +6479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1B5F00-DA2C-4C55-B5A6-596B8F1A90B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F53B41-4A73-45EF-AB28-69FB86B8E6C4}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6703,7 +6703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD9EAD6-4C03-4218-BB67-BCFA38E00DF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA487DAD-4C9B-422B-B73A-6BAED9F36177}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6927,7 +6927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A59B992-4D1A-4F1E-9F0F-C15782B4F97E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9699D2-1355-4EB4-AF53-A08B48ECFFEB}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7151,7 +7151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75790A-C06F-46A2-A5B1-266BDF373BD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503B2DBB-1683-4F16-9475-3B4473E79C45}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7375,7 +7375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412F740D-513E-4DD1-A65A-487D6ABB5AA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA1A36E-B289-4B20-9CC4-D36355F14ED3}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7613,7 +7613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C43AD0-D630-4534-9430-47BAE375F1B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60131666-349E-4B38-82B5-5F68DAA8C3F6}">
   <dimension ref="I1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7781,7 +7781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C2FADD-ED1F-4CE4-AB2A-D94769AAAA2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAC2622-C064-4535-BDF8-7295D0EB6009}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8019,7 +8019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330FFCCD-32F7-4C25-8A5C-EA95918E1DCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A750753F-DA03-4ABA-9403-6D066DD10618}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8257,7 +8257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB02B75-0D35-49E4-B5B6-A29C556F9C2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C368FE0-5626-438A-9918-EBEBEA9CFD71}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8495,7 +8495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55ABCDAF-48D2-4921-97F5-1CBC93B762BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97521FAB-885F-4875-9446-369CE7E2163B}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8733,7 +8733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E059FB-ECB0-4FD7-B318-48C6219F464F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCA762D-ABFE-407E-89B8-6E4165885156}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8971,7 +8971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210C97DF-5080-4DF5-85D0-8615A00CDC6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF9DB6C-7866-4BAE-B51F-ED4F67DC52A6}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
